--- a/ExcelUtils/JB_Windows_TestMasterData.xlsx
+++ b/ExcelUtils/JB_Windows_TestMasterData.xlsx
@@ -170,21 +170,24 @@
     <t>Buy Two Get 30% Discount On Third</t>
   </si>
   <si>
+    <t>New Category1</t>
+  </si>
+  <si>
+    <t>E:\AutomationPhotos\Tomato.jpeg</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Buy One Get Two Free</t>
+  </si>
+  <si>
     <t>Foot Ware</t>
   </si>
   <si>
-    <t>E:\AutomationPhotos\Tomato.jpeg</t>
-  </si>
-  <si>
-    <t>Buy One Get Two Free</t>
-  </si>
-  <si>
     <t>Buy Two Get 50% Discount On Third</t>
   </si>
   <si>
-    <t>New Category1</t>
-  </si>
-  <si>
     <t>Eyeliner</t>
   </si>
   <si>
@@ -195,9 +198,6 @@
   </si>
   <si>
     <t>Complimentary</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
   </si>
   <si>
     <t>Packing Charges</t>
@@ -6583,7 +6583,7 @@
   </sheetPr>
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -6781,24 +6781,24 @@
         <v>36</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>24</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>14</v>
@@ -6827,13 +6827,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
@@ -6845,13 +6845,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
@@ -6863,7 +6863,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>14</v>
@@ -6889,7 +6889,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
@@ -6907,7 +6907,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
@@ -6925,7 +6925,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
@@ -6943,7 +6943,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
@@ -6961,7 +6961,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
@@ -6979,7 +6979,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
@@ -6997,7 +6997,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
@@ -7015,7 +7015,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
@@ -7033,7 +7033,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
@@ -7051,7 +7051,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -11480,7 +11480,7 @@
         <v>163</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>164</v>
@@ -11525,7 +11525,7 @@
         <v>165</v>
       </c>
       <c r="V9" s="59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W9" s="59" t="s">
         <v>139</v>
@@ -11562,7 +11562,7 @@
         <v>168</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>148</v>
@@ -11620,7 +11620,7 @@
         <v>171</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>148</v>
@@ -12499,7 +12499,7 @@
         <v>209</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>148</v>
@@ -12544,7 +12544,7 @@
         <v>211</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>148</v>
@@ -12589,7 +12589,7 @@
         <v>213</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>148</v>
@@ -13399,7 +13399,7 @@
         <v>259</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>148</v>
@@ -13444,7 +13444,7 @@
         <v>262</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>148</v>
@@ -13489,7 +13489,7 @@
         <v>265</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>148</v>
@@ -14299,7 +14299,7 @@
         <v>319</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>148</v>
@@ -14344,7 +14344,7 @@
         <v>322</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>148</v>
@@ -19063,7 +19063,7 @@
         <v>908</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F233" s="11" t="s">
         <v>148</v>
@@ -19084,7 +19084,7 @@
         <v>910</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F234" s="11" t="s">
         <v>148</v>
@@ -19105,7 +19105,7 @@
         <v>912</v>
       </c>
       <c r="E235" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F235" s="11" t="s">
         <v>148</v>
@@ -19126,7 +19126,7 @@
         <v>914</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F236" s="11" t="s">
         <v>148</v>
@@ -19147,7 +19147,7 @@
         <v>916</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F237" s="11" t="s">
         <v>148</v>
@@ -19168,7 +19168,7 @@
         <v>918</v>
       </c>
       <c r="E238" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F238" s="11" t="s">
         <v>148</v>
@@ -19189,7 +19189,7 @@
         <v>920</v>
       </c>
       <c r="E239" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F239" s="11" t="s">
         <v>148</v>
@@ -19210,7 +19210,7 @@
         <v>922</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F240" s="11" t="s">
         <v>148</v>
@@ -19231,7 +19231,7 @@
         <v>924</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F241" s="11" t="s">
         <v>148</v>
@@ -19252,7 +19252,7 @@
         <v>926</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F242" s="11" t="s">
         <v>148</v>
@@ -19273,7 +19273,7 @@
         <v>928</v>
       </c>
       <c r="E243" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F243" s="11" t="s">
         <v>148</v>
@@ -19294,7 +19294,7 @@
         <v>930</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F244" s="11" t="s">
         <v>148</v>
@@ -19315,7 +19315,7 @@
         <v>932</v>
       </c>
       <c r="E245" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F245" s="11" t="s">
         <v>148</v>
@@ -19336,7 +19336,7 @@
         <v>934</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F246" s="11" t="s">
         <v>148</v>
@@ -19357,7 +19357,7 @@
         <v>936</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F247" s="11" t="s">
         <v>148</v>
@@ -19378,7 +19378,7 @@
         <v>938</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F248" s="11" t="s">
         <v>148</v>
@@ -19399,7 +19399,7 @@
         <v>940</v>
       </c>
       <c r="E249" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F249" s="11" t="s">
         <v>148</v>
@@ -19420,7 +19420,7 @@
         <v>942</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F250" s="11" t="s">
         <v>148</v>
@@ -19441,7 +19441,7 @@
         <v>944</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F251" s="11" t="s">
         <v>148</v>
@@ -19462,7 +19462,7 @@
         <v>946</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F252" s="11" t="s">
         <v>148</v>

--- a/ExcelUtils/JB_Windows_TestMasterData.xlsx
+++ b/ExcelUtils/JB_Windows_TestMasterData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8615" windowHeight="8940" tabRatio="987"/>
+    <workbookView windowWidth="8580" windowHeight="8940" tabRatio="987" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="1662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4134" uniqueCount="1662">
   <si>
     <t>Category Name</t>
   </si>
@@ -3526,10 +3526,10 @@
     <t>Samiran@gmail.com</t>
   </si>
   <si>
-    <t>20 – Jan – 18</t>
-  </si>
-  <si>
-    <t>17 – Jan – 18</t>
+    <t>20/01/2023</t>
+  </si>
+  <si>
+    <t>17/09/2024</t>
   </si>
   <si>
     <t>Madinaguda</t>
@@ -3538,6 +3538,9 @@
     <t>opposite to pranaam hospital</t>
   </si>
   <si>
+    <t>Active</t>
+  </si>
+  <si>
     <t>Samiran</t>
   </si>
   <si>
@@ -3553,12 +3556,15 @@
     <t>Rakeshu@gmail.com</t>
   </si>
   <si>
-    <t>31 – Jan – 18</t>
+    <t>30/01/2024</t>
   </si>
   <si>
     <t>Mittal</t>
   </si>
   <si>
+    <t>15/01/2024</t>
+  </si>
+  <si>
     <t>Subh</t>
   </si>
   <si>
@@ -3590,12 +3596,6 @@
   </si>
   <si>
     <t>Priya@gmail.com</t>
-  </si>
-  <si>
-    <t>29 – Dec– 18</t>
-  </si>
-  <si>
-    <t>31 – Dec – 18</t>
   </si>
   <si>
     <t>Adirake</t>
@@ -5801,7 +5801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5902,7 +5902,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -5913,9 +5913,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6583,7 +6580,7 @@
   </sheetPr>
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -6604,28 +6601,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="74" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="20" t="s">
@@ -6777,10 +6774,10 @@
       <c r="E7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="58" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -6877,7 +6874,7 @@
       <c r="E12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="58" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10087,7 +10084,7 @@
         <v>1642</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1643</v>
@@ -10208,33 +10205,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.9814814814815" style="65"/>
-    <col min="2" max="2" width="7.01851851851852" style="55"/>
-    <col min="3" max="3" width="17.0092592592593" style="55"/>
-    <col min="4" max="4" width="9.17592592592593" style="66"/>
-    <col min="5" max="5" width="10.5277777777778" style="66"/>
-    <col min="6" max="6" width="6.75" style="67"/>
-    <col min="7" max="7" width="6.07407407407407" style="55"/>
-    <col min="8" max="8" width="6.75" style="55"/>
-    <col min="9" max="9" width="6.07407407407407" style="55"/>
-    <col min="10" max="10" width="6.48148148148148" style="55"/>
-    <col min="11" max="1025" width="6.07407407407407" style="55"/>
+    <col min="1" max="1" width="19.9814814814815" style="64"/>
+    <col min="2" max="2" width="7.01851851851852" style="54"/>
+    <col min="3" max="3" width="17.0092592592593" style="54"/>
+    <col min="4" max="4" width="9.17592592592593" style="65"/>
+    <col min="5" max="5" width="10.5277777777778" style="65"/>
+    <col min="6" max="6" width="6.75" style="66"/>
+    <col min="7" max="7" width="6.07407407407407" style="54"/>
+    <col min="8" max="8" width="6.75" style="54"/>
+    <col min="9" max="9" width="6.07407407407407" style="54"/>
+    <col min="10" max="10" width="6.48148148148148" style="54"/>
+    <col min="11" max="1025" width="6.07407407407407" style="54"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:10">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="69" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="30" t="s">
@@ -10254,26 +10251,26 @@
       </c>
     </row>
     <row r="2" ht="86.4" spans="1:10">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="70" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="72"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="31">
         <v>1</v>
       </c>
       <c r="G2" s="31">
         <v>3</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="70" t="s">
         <v>61</v>
       </c>
       <c r="I2" s="31" t="s">
@@ -10284,292 +10281,292 @@
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:5">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="70" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="71" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="70" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="72">
         <v>0.15</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="70" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="72">
         <v>0.1</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="70" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="72">
         <v>0.5</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="72">
         <v>0.5</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="70" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="72">
         <v>0.6</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="70" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="72">
         <v>0.7</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="70" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="72">
         <v>0.5</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
     </row>
     <row r="11" ht="41.2" customHeight="1" spans="1:5">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="70" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="72">
         <v>0.3</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="72"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="73" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="31"/>
-      <c r="C12" s="73">
+      <c r="C12" s="72">
         <v>0.3</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="73" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="31"/>
-      <c r="C13" s="73">
+      <c r="C13" s="72">
         <v>0.3</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="73" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="31"/>
-      <c r="C14" s="73">
+      <c r="C14" s="72">
         <v>0.3</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="73" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="73">
+      <c r="C15" s="72">
         <v>0.3</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="73" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="31"/>
-      <c r="C16" s="73">
+      <c r="C16" s="72">
         <v>0.3</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="73" t="s">
         <v>80</v>
       </c>
       <c r="B17" s="31"/>
-      <c r="C17" s="73">
+      <c r="C17" s="72">
         <v>0.3</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="73" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="31"/>
-      <c r="C18" s="73">
+      <c r="C18" s="72">
         <v>0.3</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="73" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="31"/>
-      <c r="C19" s="73">
+      <c r="C19" s="72">
         <v>0.3</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="73" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="31"/>
-      <c r="C20" s="73">
+      <c r="C20" s="72">
         <v>0.3</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="73" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="31"/>
-      <c r="C21" s="73">
+      <c r="C21" s="72">
         <v>0.3</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="73" t="s">
         <v>85</v>
       </c>
       <c r="B22" s="31"/>
-      <c r="C22" s="73">
+      <c r="C22" s="72">
         <v>0.3</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="73" t="s">
         <v>86</v>
       </c>
       <c r="B23" s="31"/>
-      <c r="C23" s="73">
+      <c r="C23" s="72">
         <v>0.3</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="73" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="31"/>
-      <c r="C24" s="73">
+      <c r="C24" s="72">
         <v>0.3</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="73" t="s">
         <v>88</v>
       </c>
       <c r="B25" s="31"/>
-      <c r="C25" s="73">
+      <c r="C25" s="72">
         <v>0.3</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="73" t="s">
         <v>89</v>
       </c>
       <c r="B26" s="31"/>
-      <c r="C26" s="73">
+      <c r="C26" s="72">
         <v>0.3</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27"/>
@@ -10579,200 +10576,200 @@
       <c r="E27"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="71"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="71"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="71"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="71"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="71"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="71"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="71"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="71"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="71"/>
+      <c r="A36" s="70"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="71"/>
+      <c r="A37" s="70"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="71"/>
+      <c r="A38" s="70"/>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="71"/>
+      <c r="A39" s="70"/>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="71"/>
+      <c r="A40" s="70"/>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="71"/>
+      <c r="A41" s="70"/>
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="71"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="71"/>
+      <c r="A43" s="70"/>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="71"/>
+      <c r="A44" s="70"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="71"/>
+      <c r="A45" s="70"/>
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="71"/>
+      <c r="A46" s="70"/>
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="71"/>
+      <c r="A47" s="70"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="71"/>
+      <c r="A48" s="70"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="71"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="71"/>
+      <c r="A50" s="70"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="71"/>
+      <c r="A51" s="70"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="71"/>
+      <c r="A52" s="70"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="71"/>
+      <c r="A53" s="70"/>
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="71"/>
+      <c r="A54" s="70"/>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="71"/>
+      <c r="A55" s="70"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="31"/>
@@ -10825,17 +10822,17 @@
     <col min="9" max="9" width="9.31481481481481" style="25"/>
     <col min="10" max="10" width="6.87962962962963" style="25"/>
     <col min="11" max="11" width="10.5277777777778" style="25"/>
-    <col min="12" max="12" width="26.0555555555556" style="54"/>
-    <col min="13" max="13" width="9.31481481481481" style="54"/>
-    <col min="14" max="14" width="13.7685185185185" style="54"/>
-    <col min="15" max="15" width="12.6851851851852" style="54"/>
-    <col min="16" max="18" width="9.99074074074074" style="54"/>
-    <col min="19" max="19" width="8.23148148148148" style="54"/>
-    <col min="20" max="20" width="9.99074074074074" style="54"/>
-    <col min="21" max="21" width="8.50925925925926" style="54"/>
-    <col min="22" max="22" width="10.2592592592593" style="54"/>
-    <col min="23" max="26" width="9.99074074074074" style="54"/>
-    <col min="27" max="27" width="10.6666666666667" style="54"/>
+    <col min="12" max="12" width="26.0555555555556" style="53"/>
+    <col min="13" max="13" width="9.31481481481481" style="53"/>
+    <col min="14" max="14" width="13.7685185185185" style="53"/>
+    <col min="15" max="15" width="12.6851851851852" style="53"/>
+    <col min="16" max="18" width="9.99074074074074" style="53"/>
+    <col min="19" max="19" width="8.23148148148148" style="53"/>
+    <col min="20" max="20" width="9.99074074074074" style="53"/>
+    <col min="21" max="21" width="8.50925925925926" style="53"/>
+    <col min="22" max="22" width="10.2592592592593" style="53"/>
+    <col min="23" max="26" width="9.99074074074074" style="53"/>
+    <col min="27" max="27" width="10.6666666666667" style="53"/>
     <col min="28" max="28" width="9.99074074074074" style="25"/>
     <col min="29" max="30" width="6.07407407407407" style="25"/>
     <col min="31" max="31" width="6.75" style="25"/>
@@ -10847,42 +10844,42 @@
     <col min="37" max="37" width="9.44444444444444" style="25"/>
     <col min="38" max="38" width="12.4166666666667" style="25"/>
     <col min="39" max="40" width="6.07407407407407" style="25"/>
-    <col min="41" max="41" width="6.07407407407407" style="55"/>
+    <col min="41" max="41" width="6.07407407407407" style="54"/>
     <col min="42" max="1025" width="6.07407407407407" style="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="57.6" spans="1:41">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="55" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="49" t="s">
@@ -11003,40 +11000,40 @@
       <c r="J2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="N2" s="60">
+      <c r="N2" s="59">
         <v>500</v>
       </c>
-      <c r="O2" s="60">
+      <c r="O2" s="59">
         <v>400</v>
       </c>
-      <c r="P2" s="60">
+      <c r="P2" s="59">
         <v>500</v>
       </c>
-      <c r="Q2" s="60">
+      <c r="Q2" s="59">
         <v>400</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="S2" s="62" t="s">
+      <c r="S2" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
       <c r="AA2" s="4" t="s">
         <v>129</v>
       </c>
@@ -11055,7 +11052,7 @@
       <c r="AG2" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="AH2" s="64" t="s">
+      <c r="AH2" s="63" t="s">
         <v>133</v>
       </c>
       <c r="AI2" s="34">
@@ -11112,34 +11109,34 @@
       <c r="K3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="59" t="s">
+      <c r="M3" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="60">
+      <c r="N3" s="59">
         <v>300</v>
       </c>
-      <c r="O3" s="60">
+      <c r="O3" s="59">
         <v>250</v>
       </c>
-      <c r="P3" s="60">
+      <c r="P3" s="59">
         <v>300</v>
       </c>
-      <c r="Q3" s="60">
+      <c r="Q3" s="59">
         <v>250</v>
       </c>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59" t="s">
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58" t="s">
         <v>140</v>
       </c>
       <c r="AM3" s="14" t="s">
@@ -11184,33 +11181,33 @@
       <c r="K4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="N4" s="60">
+      <c r="N4" s="59">
         <v>350</v>
       </c>
-      <c r="O4" s="60">
+      <c r="O4" s="59">
         <v>250</v>
       </c>
-      <c r="P4" s="60">
+      <c r="P4" s="59">
         <v>350</v>
       </c>
-      <c r="Q4" s="60">
+      <c r="Q4" s="59">
         <v>250</v>
       </c>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
       <c r="AA4" s="4" t="s">
         <v>129</v>
       </c>
@@ -11252,24 +11249,24 @@
         <v>67</v>
       </c>
       <c r="K5" s="11"/>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
       <c r="AM5" s="14" t="s">
         <v>134</v>
       </c>
@@ -11311,37 +11308,37 @@
       <c r="J6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="57" t="s">
         <v>60</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="59" t="s">
+      <c r="M6" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="N6" s="60">
+      <c r="N6" s="59">
         <v>450</v>
       </c>
-      <c r="O6" s="60">
+      <c r="O6" s="59">
         <v>350</v>
       </c>
-      <c r="P6" s="60">
+      <c r="P6" s="59">
         <v>450</v>
       </c>
-      <c r="Q6" s="60">
+      <c r="Q6" s="59">
         <v>350</v>
       </c>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59" t="s">
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58" t="s">
         <v>129</v>
       </c>
       <c r="AM6" s="14" t="s">
@@ -11381,27 +11378,27 @@
       <c r="J7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="58" t="s">
+      <c r="K7" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="59" t="s">
+      <c r="L7" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
       <c r="AM7" s="14" t="s">
         <v>134</v>
       </c>
@@ -11440,24 +11437,24 @@
         <v>70</v>
       </c>
       <c r="K8" s="11"/>
-      <c r="L8" s="59" t="s">
+      <c r="L8" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
       <c r="AM8" s="14" t="s">
         <v>134</v>
       </c>
@@ -11500,46 +11497,46 @@
       <c r="K9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="59" t="s">
+      <c r="L9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="59"/>
-      <c r="N9" s="60">
+      <c r="M9" s="58"/>
+      <c r="N9" s="59">
         <v>400</v>
       </c>
-      <c r="O9" s="60">
+      <c r="O9" s="59">
         <v>300</v>
       </c>
-      <c r="P9" s="60">
+      <c r="P9" s="59">
         <v>500</v>
       </c>
-      <c r="Q9" s="60">
+      <c r="Q9" s="59">
         <v>400</v>
       </c>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
       <c r="T9" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="U9" s="59" t="s">
+      <c r="U9" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="V9" s="59" t="s">
+      <c r="V9" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="W9" s="59" t="s">
+      <c r="W9" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="X9" s="59" t="s">
+      <c r="X9" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="Y9" s="59">
+      <c r="Y9" s="58">
         <v>250</v>
       </c>
-      <c r="Z9" s="59">
+      <c r="Z9" s="58">
         <v>300</v>
       </c>
-      <c r="AA9" s="59"/>
+      <c r="AA9" s="58"/>
       <c r="AM9" s="14" t="s">
         <v>134</v>
       </c>
@@ -11580,24 +11577,24 @@
       <c r="K10" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="59" t="s">
+      <c r="L10" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
       <c r="AM10" s="14" t="s">
         <v>134</v>
       </c>
@@ -11636,24 +11633,24 @@
         <v>63</v>
       </c>
       <c r="K11" s="11"/>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
       <c r="AM11" s="14" t="s">
         <v>134</v>
       </c>
@@ -11692,24 +11689,24 @@
         <v>61</v>
       </c>
       <c r="K12" s="11"/>
-      <c r="L12" s="59" t="s">
+      <c r="L12" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
     </row>
     <row r="13" ht="86.4" spans="1:27">
       <c r="A13" s="11" t="s">
@@ -11740,27 +11737,27 @@
       <c r="J13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="58" t="s">
+      <c r="K13" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="59" t="s">
+      <c r="L13" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
     </row>
     <row r="14" ht="42" spans="1:27">
       <c r="A14" s="11" t="s">
@@ -11794,24 +11791,24 @@
       <c r="K14" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
     </row>
     <row r="15" ht="42" spans="1:27">
       <c r="A15" s="11" t="s">
@@ -11845,24 +11842,24 @@
       <c r="K15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L15" s="59" t="s">
+      <c r="L15" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
     </row>
     <row r="16" ht="42" spans="1:27">
       <c r="A16" s="11" t="s">
@@ -11894,24 +11891,24 @@
         <v>68</v>
       </c>
       <c r="K16" s="11"/>
-      <c r="L16" s="59" t="s">
+      <c r="L16" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
     </row>
     <row r="17" ht="42" spans="1:27">
       <c r="A17" s="11" t="s">
@@ -11943,24 +11940,24 @@
         <v>69</v>
       </c>
       <c r="K17" s="11"/>
-      <c r="L17" s="59" t="s">
+      <c r="L17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
     </row>
     <row r="18" ht="42" spans="1:27">
       <c r="A18" s="11" t="s">
@@ -11992,24 +11989,24 @@
         <v>70</v>
       </c>
       <c r="K18" s="11"/>
-      <c r="L18" s="59" t="s">
+      <c r="L18" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
     </row>
     <row r="19" ht="42" spans="1:27">
       <c r="A19" s="11" t="s">
@@ -12043,24 +12040,24 @@
       <c r="K19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="59" t="s">
+      <c r="L19" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
     </row>
     <row r="20" ht="42" spans="1:27">
       <c r="A20" s="11" t="s">
@@ -12094,24 +12091,24 @@
       <c r="K20" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="59" t="s">
+      <c r="L20" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
     </row>
     <row r="21" ht="86.4" spans="1:27">
       <c r="A21" s="11" t="s">
@@ -12142,27 +12139,27 @@
       <c r="J21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="58" t="s">
+      <c r="K21" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="59" t="s">
+      <c r="L21" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
     </row>
     <row r="22" ht="42" spans="1:27">
       <c r="A22" s="25" t="s">
@@ -12186,30 +12183,30 @@
       <c r="G22" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="57"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="59" t="s">
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
     </row>
     <row r="23" ht="42" spans="1:27">
       <c r="A23" s="25" t="s">
@@ -12233,30 +12230,30 @@
       <c r="G23" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="57"/>
+      <c r="H23" s="56"/>
       <c r="I23" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="59" t="s">
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
     </row>
     <row r="24" ht="42" spans="1:27">
       <c r="A24" s="25" t="s">
@@ -12280,30 +12277,30 @@
       <c r="G24" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="57"/>
+      <c r="H24" s="56"/>
       <c r="I24" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="59" t="s">
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="25" t="s">
@@ -12327,12 +12324,12 @@
       <c r="G25" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H25" s="57"/>
+      <c r="H25" s="56"/>
       <c r="I25" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
@@ -12372,12 +12369,12 @@
       <c r="G26" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H26" s="57"/>
+      <c r="H26" s="56"/>
       <c r="I26" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
@@ -12417,12 +12414,12 @@
       <c r="G27" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H27" s="57"/>
+      <c r="H27" s="56"/>
       <c r="I27" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
@@ -12462,12 +12459,12 @@
       <c r="G28" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="57"/>
+      <c r="H28" s="56"/>
       <c r="I28" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
@@ -12507,12 +12504,12 @@
       <c r="G29" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H29" s="57"/>
+      <c r="H29" s="56"/>
       <c r="I29" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
@@ -12552,12 +12549,12 @@
       <c r="G30" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="57"/>
+      <c r="H30" s="56"/>
       <c r="I30" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
@@ -12597,12 +12594,12 @@
       <c r="G31" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H31" s="57"/>
+      <c r="H31" s="56"/>
       <c r="I31" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
@@ -12642,12 +12639,12 @@
       <c r="G32" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H32" s="57"/>
+      <c r="H32" s="56"/>
       <c r="I32" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
@@ -12687,12 +12684,12 @@
       <c r="G33" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H33" s="57"/>
+      <c r="H33" s="56"/>
       <c r="I33" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
@@ -12732,12 +12729,12 @@
       <c r="G34" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H34" s="57"/>
+      <c r="H34" s="56"/>
       <c r="I34" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34"/>
@@ -12777,12 +12774,12 @@
       <c r="G35" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H35" s="57"/>
+      <c r="H35" s="56"/>
       <c r="I35" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
@@ -12822,12 +12819,12 @@
       <c r="G36" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H36" s="57"/>
+      <c r="H36" s="56"/>
       <c r="I36" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
@@ -12867,12 +12864,12 @@
       <c r="G37" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H37" s="57"/>
+      <c r="H37" s="56"/>
       <c r="I37" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
@@ -12912,12 +12909,12 @@
       <c r="G38" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H38" s="57"/>
+      <c r="H38" s="56"/>
       <c r="I38" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
@@ -12957,12 +12954,12 @@
       <c r="G39" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H39" s="57"/>
+      <c r="H39" s="56"/>
       <c r="I39" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
@@ -13002,12 +12999,12 @@
       <c r="G40" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H40" s="57"/>
+      <c r="H40" s="56"/>
       <c r="I40" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
@@ -13047,12 +13044,12 @@
       <c r="G41" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H41" s="57"/>
+      <c r="H41" s="56"/>
       <c r="I41" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
@@ -13092,12 +13089,12 @@
       <c r="G42" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H42" s="57"/>
+      <c r="H42" s="56"/>
       <c r="I42" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -13137,12 +13134,12 @@
       <c r="G43" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H43" s="57"/>
+      <c r="H43" s="56"/>
       <c r="I43" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -13182,12 +13179,12 @@
       <c r="G44" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H44" s="57"/>
+      <c r="H44" s="56"/>
       <c r="I44" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
@@ -13227,12 +13224,12 @@
       <c r="G45" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H45" s="57"/>
+      <c r="H45" s="56"/>
       <c r="I45" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45"/>
@@ -13272,12 +13269,12 @@
       <c r="G46" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H46" s="57"/>
+      <c r="H46" s="56"/>
       <c r="I46" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -13317,12 +13314,12 @@
       <c r="G47" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H47" s="57"/>
+      <c r="H47" s="56"/>
       <c r="I47" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47"/>
@@ -13362,12 +13359,12 @@
       <c r="G48" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H48" s="57"/>
+      <c r="H48" s="56"/>
       <c r="I48" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48"/>
@@ -13407,12 +13404,12 @@
       <c r="G49" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H49" s="57"/>
+      <c r="H49" s="56"/>
       <c r="I49" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
@@ -13452,12 +13449,12 @@
       <c r="G50" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H50" s="57"/>
+      <c r="H50" s="56"/>
       <c r="I50" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
@@ -13497,12 +13494,12 @@
       <c r="G51" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H51" s="57"/>
+      <c r="H51" s="56"/>
       <c r="I51" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
@@ -13542,12 +13539,12 @@
       <c r="G52" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H52" s="57"/>
+      <c r="H52" s="56"/>
       <c r="I52" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
@@ -13587,28 +13584,28 @@
       <c r="G53" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H53" s="57"/>
+      <c r="H53" s="56"/>
       <c r="I53" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="61"/>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="61"/>
-      <c r="S53" s="61"/>
-      <c r="T53" s="61"/>
-      <c r="U53" s="61"/>
-      <c r="V53" s="61"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="61"/>
-      <c r="Z53" s="61"/>
-      <c r="AA53" s="61"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="60"/>
+      <c r="U53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="60"/>
+      <c r="Z53" s="60"/>
+      <c r="AA53" s="60"/>
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="25" t="s">
@@ -13632,28 +13629,28 @@
       <c r="G54" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H54" s="57"/>
+      <c r="H54" s="56"/>
       <c r="I54" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="61"/>
-      <c r="M54" s="61"/>
-      <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="61"/>
-      <c r="S54" s="61"/>
-      <c r="T54" s="61"/>
-      <c r="U54" s="61"/>
-      <c r="V54" s="61"/>
-      <c r="W54" s="61"/>
-      <c r="X54" s="61"/>
-      <c r="Y54" s="61"/>
-      <c r="Z54" s="61"/>
-      <c r="AA54" s="61"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="60"/>
+      <c r="U54" s="60"/>
+      <c r="V54" s="60"/>
+      <c r="W54" s="60"/>
+      <c r="X54" s="60"/>
+      <c r="Y54" s="60"/>
+      <c r="Z54" s="60"/>
+      <c r="AA54" s="60"/>
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="25" t="s">
@@ -13677,28 +13674,28 @@
       <c r="G55" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H55" s="57"/>
+      <c r="H55" s="56"/>
       <c r="I55" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="61"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="61"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="61"/>
-      <c r="Q55" s="61"/>
-      <c r="R55" s="61"/>
-      <c r="S55" s="61"/>
-      <c r="T55" s="61"/>
-      <c r="U55" s="61"/>
-      <c r="V55" s="61"/>
-      <c r="W55" s="61"/>
-      <c r="X55" s="61"/>
-      <c r="Y55" s="61"/>
-      <c r="Z55" s="61"/>
-      <c r="AA55" s="61"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="60"/>
+      <c r="U55" s="60"/>
+      <c r="V55" s="60"/>
+      <c r="W55" s="60"/>
+      <c r="X55" s="60"/>
+      <c r="Y55" s="60"/>
+      <c r="Z55" s="60"/>
+      <c r="AA55" s="60"/>
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="25" t="s">
@@ -13722,28 +13719,28 @@
       <c r="G56" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H56" s="57"/>
+      <c r="H56" s="56"/>
       <c r="I56" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="61"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="61"/>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="61"/>
-      <c r="S56" s="61"/>
-      <c r="T56" s="61"/>
-      <c r="U56" s="61"/>
-      <c r="V56" s="61"/>
-      <c r="W56" s="61"/>
-      <c r="X56" s="61"/>
-      <c r="Y56" s="61"/>
-      <c r="Z56" s="61"/>
-      <c r="AA56" s="61"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="60"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="60"/>
+      <c r="T56" s="60"/>
+      <c r="U56" s="60"/>
+      <c r="V56" s="60"/>
+      <c r="W56" s="60"/>
+      <c r="X56" s="60"/>
+      <c r="Y56" s="60"/>
+      <c r="Z56" s="60"/>
+      <c r="AA56" s="60"/>
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="25" t="s">
@@ -13767,28 +13764,28 @@
       <c r="G57" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H57" s="57"/>
+      <c r="H57" s="56"/>
       <c r="I57" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J57" s="57"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-      <c r="O57" s="61"/>
-      <c r="P57" s="61"/>
-      <c r="Q57" s="61"/>
-      <c r="R57" s="61"/>
-      <c r="S57" s="61"/>
-      <c r="T57" s="61"/>
-      <c r="U57" s="61"/>
-      <c r="V57" s="61"/>
-      <c r="W57" s="61"/>
-      <c r="X57" s="61"/>
-      <c r="Y57" s="61"/>
-      <c r="Z57" s="61"/>
-      <c r="AA57" s="61"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="60"/>
+      <c r="T57" s="60"/>
+      <c r="U57" s="60"/>
+      <c r="V57" s="60"/>
+      <c r="W57" s="60"/>
+      <c r="X57" s="60"/>
+      <c r="Y57" s="60"/>
+      <c r="Z57" s="60"/>
+      <c r="AA57" s="60"/>
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="25" t="s">
@@ -13812,28 +13809,28 @@
       <c r="G58" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H58" s="57"/>
+      <c r="H58" s="56"/>
       <c r="I58" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="61"/>
-      <c r="M58" s="61"/>
-      <c r="N58" s="61"/>
-      <c r="O58" s="61"/>
-      <c r="P58" s="61"/>
-      <c r="Q58" s="61"/>
-      <c r="R58" s="61"/>
-      <c r="S58" s="61"/>
-      <c r="T58" s="61"/>
-      <c r="U58" s="61"/>
-      <c r="V58" s="61"/>
-      <c r="W58" s="61"/>
-      <c r="X58" s="61"/>
-      <c r="Y58" s="61"/>
-      <c r="Z58" s="61"/>
-      <c r="AA58" s="61"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="60"/>
+      <c r="O58" s="60"/>
+      <c r="P58" s="60"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="60"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="60"/>
+      <c r="V58" s="60"/>
+      <c r="W58" s="60"/>
+      <c r="X58" s="60"/>
+      <c r="Y58" s="60"/>
+      <c r="Z58" s="60"/>
+      <c r="AA58" s="60"/>
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="25" t="s">
@@ -13857,28 +13854,28 @@
       <c r="G59" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H59" s="57"/>
+      <c r="H59" s="56"/>
       <c r="I59" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J59" s="57"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="61"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="61"/>
-      <c r="T59" s="61"/>
-      <c r="U59" s="61"/>
-      <c r="V59" s="61"/>
-      <c r="W59" s="61"/>
-      <c r="X59" s="61"/>
-      <c r="Y59" s="61"/>
-      <c r="Z59" s="61"/>
-      <c r="AA59" s="61"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="60"/>
+      <c r="P59" s="60"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="60"/>
+      <c r="T59" s="60"/>
+      <c r="U59" s="60"/>
+      <c r="V59" s="60"/>
+      <c r="W59" s="60"/>
+      <c r="X59" s="60"/>
+      <c r="Y59" s="60"/>
+      <c r="Z59" s="60"/>
+      <c r="AA59" s="60"/>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="25" t="s">
@@ -13902,28 +13899,28 @@
       <c r="G60" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H60" s="57"/>
+      <c r="H60" s="56"/>
       <c r="I60" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="61"/>
-      <c r="M60" s="61"/>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61"/>
-      <c r="P60" s="61"/>
-      <c r="Q60" s="61"/>
-      <c r="R60" s="61"/>
-      <c r="S60" s="61"/>
-      <c r="T60" s="61"/>
-      <c r="U60" s="61"/>
-      <c r="V60" s="61"/>
-      <c r="W60" s="61"/>
-      <c r="X60" s="61"/>
-      <c r="Y60" s="61"/>
-      <c r="Z60" s="61"/>
-      <c r="AA60" s="61"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="60"/>
+      <c r="U60" s="60"/>
+      <c r="V60" s="60"/>
+      <c r="W60" s="60"/>
+      <c r="X60" s="60"/>
+      <c r="Y60" s="60"/>
+      <c r="Z60" s="60"/>
+      <c r="AA60" s="60"/>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="25" t="s">
@@ -13947,28 +13944,28 @@
       <c r="G61" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H61" s="57"/>
+      <c r="H61" s="56"/>
       <c r="I61" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="61"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="61"/>
-      <c r="S61" s="61"/>
-      <c r="T61" s="61"/>
-      <c r="U61" s="61"/>
-      <c r="V61" s="61"/>
-      <c r="W61" s="61"/>
-      <c r="X61" s="61"/>
-      <c r="Y61" s="61"/>
-      <c r="Z61" s="61"/>
-      <c r="AA61" s="61"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="60"/>
+      <c r="P61" s="60"/>
+      <c r="Q61" s="60"/>
+      <c r="R61" s="60"/>
+      <c r="S61" s="60"/>
+      <c r="T61" s="60"/>
+      <c r="U61" s="60"/>
+      <c r="V61" s="60"/>
+      <c r="W61" s="60"/>
+      <c r="X61" s="60"/>
+      <c r="Y61" s="60"/>
+      <c r="Z61" s="60"/>
+      <c r="AA61" s="60"/>
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="25" t="s">
@@ -13992,28 +13989,28 @@
       <c r="G62" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H62" s="57"/>
+      <c r="H62" s="56"/>
       <c r="I62" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="61"/>
-      <c r="M62" s="61"/>
-      <c r="N62" s="61"/>
-      <c r="O62" s="61"/>
-      <c r="P62" s="61"/>
-      <c r="Q62" s="61"/>
-      <c r="R62" s="61"/>
-      <c r="S62" s="61"/>
-      <c r="T62" s="61"/>
-      <c r="U62" s="61"/>
-      <c r="V62" s="61"/>
-      <c r="W62" s="61"/>
-      <c r="X62" s="61"/>
-      <c r="Y62" s="61"/>
-      <c r="Z62" s="61"/>
-      <c r="AA62" s="61"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="60"/>
+      <c r="N62" s="60"/>
+      <c r="O62" s="60"/>
+      <c r="P62" s="60"/>
+      <c r="Q62" s="60"/>
+      <c r="R62" s="60"/>
+      <c r="S62" s="60"/>
+      <c r="T62" s="60"/>
+      <c r="U62" s="60"/>
+      <c r="V62" s="60"/>
+      <c r="W62" s="60"/>
+      <c r="X62" s="60"/>
+      <c r="Y62" s="60"/>
+      <c r="Z62" s="60"/>
+      <c r="AA62" s="60"/>
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="25" t="s">
@@ -14037,28 +14034,28 @@
       <c r="G63" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H63" s="57"/>
+      <c r="H63" s="56"/>
       <c r="I63" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="61"/>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="61"/>
-      <c r="P63" s="61"/>
-      <c r="Q63" s="61"/>
-      <c r="R63" s="61"/>
-      <c r="S63" s="61"/>
-      <c r="T63" s="61"/>
-      <c r="U63" s="61"/>
-      <c r="V63" s="61"/>
-      <c r="W63" s="61"/>
-      <c r="X63" s="61"/>
-      <c r="Y63" s="61"/>
-      <c r="Z63" s="61"/>
-      <c r="AA63" s="61"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="60"/>
+      <c r="N63" s="60"/>
+      <c r="O63" s="60"/>
+      <c r="P63" s="60"/>
+      <c r="Q63" s="60"/>
+      <c r="R63" s="60"/>
+      <c r="S63" s="60"/>
+      <c r="T63" s="60"/>
+      <c r="U63" s="60"/>
+      <c r="V63" s="60"/>
+      <c r="W63" s="60"/>
+      <c r="X63" s="60"/>
+      <c r="Y63" s="60"/>
+      <c r="Z63" s="60"/>
+      <c r="AA63" s="60"/>
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="25" t="s">
@@ -14082,28 +14079,28 @@
       <c r="G64" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H64" s="57"/>
+      <c r="H64" s="56"/>
       <c r="I64" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="61"/>
-      <c r="N64" s="61"/>
-      <c r="O64" s="61"/>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="61"/>
-      <c r="R64" s="61"/>
-      <c r="S64" s="61"/>
-      <c r="T64" s="61"/>
-      <c r="U64" s="61"/>
-      <c r="V64" s="61"/>
-      <c r="W64" s="61"/>
-      <c r="X64" s="61"/>
-      <c r="Y64" s="61"/>
-      <c r="Z64" s="61"/>
-      <c r="AA64" s="61"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="60"/>
+      <c r="N64" s="60"/>
+      <c r="O64" s="60"/>
+      <c r="P64" s="60"/>
+      <c r="Q64" s="60"/>
+      <c r="R64" s="60"/>
+      <c r="S64" s="60"/>
+      <c r="T64" s="60"/>
+      <c r="U64" s="60"/>
+      <c r="V64" s="60"/>
+      <c r="W64" s="60"/>
+      <c r="X64" s="60"/>
+      <c r="Y64" s="60"/>
+      <c r="Z64" s="60"/>
+      <c r="AA64" s="60"/>
     </row>
     <row r="65" spans="1:27">
       <c r="A65" s="25" t="s">
@@ -14127,28 +14124,28 @@
       <c r="G65" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H65" s="57"/>
+      <c r="H65" s="56"/>
       <c r="I65" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="61"/>
-      <c r="N65" s="61"/>
-      <c r="O65" s="61"/>
-      <c r="P65" s="61"/>
-      <c r="Q65" s="61"/>
-      <c r="R65" s="61"/>
-      <c r="S65" s="61"/>
-      <c r="T65" s="61"/>
-      <c r="U65" s="61"/>
-      <c r="V65" s="61"/>
-      <c r="W65" s="61"/>
-      <c r="X65" s="61"/>
-      <c r="Y65" s="61"/>
-      <c r="Z65" s="61"/>
-      <c r="AA65" s="61"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="60"/>
+      <c r="O65" s="60"/>
+      <c r="P65" s="60"/>
+      <c r="Q65" s="60"/>
+      <c r="R65" s="60"/>
+      <c r="S65" s="60"/>
+      <c r="T65" s="60"/>
+      <c r="U65" s="60"/>
+      <c r="V65" s="60"/>
+      <c r="W65" s="60"/>
+      <c r="X65" s="60"/>
+      <c r="Y65" s="60"/>
+      <c r="Z65" s="60"/>
+      <c r="AA65" s="60"/>
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="25" t="s">
@@ -14172,28 +14169,28 @@
       <c r="G66" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H66" s="57"/>
+      <c r="H66" s="56"/>
       <c r="I66" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="61"/>
-      <c r="R66" s="61"/>
-      <c r="S66" s="61"/>
-      <c r="T66" s="61"/>
-      <c r="U66" s="61"/>
-      <c r="V66" s="61"/>
-      <c r="W66" s="61"/>
-      <c r="X66" s="61"/>
-      <c r="Y66" s="61"/>
-      <c r="Z66" s="61"/>
-      <c r="AA66" s="61"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="60"/>
+      <c r="O66" s="60"/>
+      <c r="P66" s="60"/>
+      <c r="Q66" s="60"/>
+      <c r="R66" s="60"/>
+      <c r="S66" s="60"/>
+      <c r="T66" s="60"/>
+      <c r="U66" s="60"/>
+      <c r="V66" s="60"/>
+      <c r="W66" s="60"/>
+      <c r="X66" s="60"/>
+      <c r="Y66" s="60"/>
+      <c r="Z66" s="60"/>
+      <c r="AA66" s="60"/>
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="25" t="s">
@@ -14217,28 +14214,28 @@
       <c r="G67" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H67" s="57"/>
+      <c r="H67" s="56"/>
       <c r="I67" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J67" s="57"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="61"/>
-      <c r="M67" s="61"/>
-      <c r="N67" s="61"/>
-      <c r="O67" s="61"/>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="61"/>
-      <c r="R67" s="61"/>
-      <c r="S67" s="61"/>
-      <c r="T67" s="61"/>
-      <c r="U67" s="61"/>
-      <c r="V67" s="61"/>
-      <c r="W67" s="61"/>
-      <c r="X67" s="61"/>
-      <c r="Y67" s="61"/>
-      <c r="Z67" s="61"/>
-      <c r="AA67" s="61"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="60"/>
+      <c r="N67" s="60"/>
+      <c r="O67" s="60"/>
+      <c r="P67" s="60"/>
+      <c r="Q67" s="60"/>
+      <c r="R67" s="60"/>
+      <c r="S67" s="60"/>
+      <c r="T67" s="60"/>
+      <c r="U67" s="60"/>
+      <c r="V67" s="60"/>
+      <c r="W67" s="60"/>
+      <c r="X67" s="60"/>
+      <c r="Y67" s="60"/>
+      <c r="Z67" s="60"/>
+      <c r="AA67" s="60"/>
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="25" t="s">
@@ -14262,28 +14259,28 @@
       <c r="G68" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H68" s="57"/>
+      <c r="H68" s="56"/>
       <c r="I68" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J68" s="57"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="61"/>
-      <c r="M68" s="61"/>
-      <c r="N68" s="61"/>
-      <c r="O68" s="61"/>
-      <c r="P68" s="61"/>
-      <c r="Q68" s="61"/>
-      <c r="R68" s="61"/>
-      <c r="S68" s="61"/>
-      <c r="T68" s="61"/>
-      <c r="U68" s="61"/>
-      <c r="V68" s="61"/>
-      <c r="W68" s="61"/>
-      <c r="X68" s="61"/>
-      <c r="Y68" s="61"/>
-      <c r="Z68" s="61"/>
-      <c r="AA68" s="61"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="60"/>
+      <c r="N68" s="60"/>
+      <c r="O68" s="60"/>
+      <c r="P68" s="60"/>
+      <c r="Q68" s="60"/>
+      <c r="R68" s="60"/>
+      <c r="S68" s="60"/>
+      <c r="T68" s="60"/>
+      <c r="U68" s="60"/>
+      <c r="V68" s="60"/>
+      <c r="W68" s="60"/>
+      <c r="X68" s="60"/>
+      <c r="Y68" s="60"/>
+      <c r="Z68" s="60"/>
+      <c r="AA68" s="60"/>
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="25" t="s">
@@ -14307,28 +14304,28 @@
       <c r="G69" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H69" s="57"/>
+      <c r="H69" s="56"/>
       <c r="I69" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J69" s="57"/>
-      <c r="K69" s="57"/>
-      <c r="L69" s="61"/>
-      <c r="M69" s="61"/>
-      <c r="N69" s="61"/>
-      <c r="O69" s="61"/>
-      <c r="P69" s="61"/>
-      <c r="Q69" s="61"/>
-      <c r="R69" s="61"/>
-      <c r="S69" s="61"/>
-      <c r="T69" s="61"/>
-      <c r="U69" s="61"/>
-      <c r="V69" s="61"/>
-      <c r="W69" s="61"/>
-      <c r="X69" s="61"/>
-      <c r="Y69" s="61"/>
-      <c r="Z69" s="61"/>
-      <c r="AA69" s="61"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="60"/>
+      <c r="O69" s="60"/>
+      <c r="P69" s="60"/>
+      <c r="Q69" s="60"/>
+      <c r="R69" s="60"/>
+      <c r="S69" s="60"/>
+      <c r="T69" s="60"/>
+      <c r="U69" s="60"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="60"/>
+      <c r="X69" s="60"/>
+      <c r="Y69" s="60"/>
+      <c r="Z69" s="60"/>
+      <c r="AA69" s="60"/>
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="25" t="s">
@@ -14352,28 +14349,28 @@
       <c r="G70" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H70" s="57"/>
+      <c r="H70" s="56"/>
       <c r="I70" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J70" s="57"/>
-      <c r="K70" s="57"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="61"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="61"/>
-      <c r="Q70" s="61"/>
-      <c r="R70" s="61"/>
-      <c r="S70" s="61"/>
-      <c r="T70" s="61"/>
-      <c r="U70" s="61"/>
-      <c r="V70" s="61"/>
-      <c r="W70" s="61"/>
-      <c r="X70" s="61"/>
-      <c r="Y70" s="61"/>
-      <c r="Z70" s="61"/>
-      <c r="AA70" s="61"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="60"/>
+      <c r="M70" s="60"/>
+      <c r="N70" s="60"/>
+      <c r="O70" s="60"/>
+      <c r="P70" s="60"/>
+      <c r="Q70" s="60"/>
+      <c r="R70" s="60"/>
+      <c r="S70" s="60"/>
+      <c r="T70" s="60"/>
+      <c r="U70" s="60"/>
+      <c r="V70" s="60"/>
+      <c r="W70" s="60"/>
+      <c r="X70" s="60"/>
+      <c r="Y70" s="60"/>
+      <c r="Z70" s="60"/>
+      <c r="AA70" s="60"/>
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="25" t="s">
@@ -14397,28 +14394,28 @@
       <c r="G71" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H71" s="57"/>
+      <c r="H71" s="56"/>
       <c r="I71" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J71" s="57"/>
-      <c r="K71" s="57"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="61"/>
-      <c r="Q71" s="61"/>
-      <c r="R71" s="61"/>
-      <c r="S71" s="61"/>
-      <c r="T71" s="61"/>
-      <c r="U71" s="61"/>
-      <c r="V71" s="61"/>
-      <c r="W71" s="61"/>
-      <c r="X71" s="61"/>
-      <c r="Y71" s="61"/>
-      <c r="Z71" s="61"/>
-      <c r="AA71" s="61"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="60"/>
+      <c r="N71" s="60"/>
+      <c r="O71" s="60"/>
+      <c r="P71" s="60"/>
+      <c r="Q71" s="60"/>
+      <c r="R71" s="60"/>
+      <c r="S71" s="60"/>
+      <c r="T71" s="60"/>
+      <c r="U71" s="60"/>
+      <c r="V71" s="60"/>
+      <c r="W71" s="60"/>
+      <c r="X71" s="60"/>
+      <c r="Y71" s="60"/>
+      <c r="Z71" s="60"/>
+      <c r="AA71" s="60"/>
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="25" t="s">
@@ -14442,28 +14439,28 @@
       <c r="G72" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="H72" s="57"/>
+      <c r="H72" s="56"/>
       <c r="I72" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J72" s="57"/>
-      <c r="K72" s="57"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="61"/>
-      <c r="O72" s="61"/>
-      <c r="P72" s="61"/>
-      <c r="Q72" s="61"/>
-      <c r="R72" s="61"/>
-      <c r="S72" s="61"/>
-      <c r="T72" s="61"/>
-      <c r="U72" s="61"/>
-      <c r="V72" s="61"/>
-      <c r="W72" s="61"/>
-      <c r="X72" s="61"/>
-      <c r="Y72" s="61"/>
-      <c r="Z72" s="61"/>
-      <c r="AA72" s="61"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="60"/>
+      <c r="O72" s="60"/>
+      <c r="P72" s="60"/>
+      <c r="Q72" s="60"/>
+      <c r="R72" s="60"/>
+      <c r="S72" s="60"/>
+      <c r="T72" s="60"/>
+      <c r="U72" s="60"/>
+      <c r="V72" s="60"/>
+      <c r="W72" s="60"/>
+      <c r="X72" s="60"/>
+      <c r="Y72" s="60"/>
+      <c r="Z72" s="60"/>
+      <c r="AA72" s="60"/>
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="25" t="s">
@@ -14487,28 +14484,28 @@
       <c r="G73" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="H73" s="57"/>
+      <c r="H73" s="56"/>
       <c r="I73" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J73" s="57"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="61"/>
-      <c r="N73" s="61"/>
-      <c r="O73" s="61"/>
-      <c r="P73" s="61"/>
-      <c r="Q73" s="61"/>
-      <c r="R73" s="61"/>
-      <c r="S73" s="61"/>
-      <c r="T73" s="61"/>
-      <c r="U73" s="61"/>
-      <c r="V73" s="61"/>
-      <c r="W73" s="61"/>
-      <c r="X73" s="61"/>
-      <c r="Y73" s="61"/>
-      <c r="Z73" s="61"/>
-      <c r="AA73" s="61"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="60"/>
+      <c r="N73" s="60"/>
+      <c r="O73" s="60"/>
+      <c r="P73" s="60"/>
+      <c r="Q73" s="60"/>
+      <c r="R73" s="60"/>
+      <c r="S73" s="60"/>
+      <c r="T73" s="60"/>
+      <c r="U73" s="60"/>
+      <c r="V73" s="60"/>
+      <c r="W73" s="60"/>
+      <c r="X73" s="60"/>
+      <c r="Y73" s="60"/>
+      <c r="Z73" s="60"/>
+      <c r="AA73" s="60"/>
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="25" t="s">
@@ -14532,28 +14529,28 @@
       <c r="G74" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="H74" s="57"/>
+      <c r="H74" s="56"/>
       <c r="I74" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J74" s="57"/>
-      <c r="K74" s="57"/>
-      <c r="L74" s="61"/>
-      <c r="M74" s="61"/>
-      <c r="N74" s="61"/>
-      <c r="O74" s="61"/>
-      <c r="P74" s="61"/>
-      <c r="Q74" s="61"/>
-      <c r="R74" s="61"/>
-      <c r="S74" s="61"/>
-      <c r="T74" s="61"/>
-      <c r="U74" s="61"/>
-      <c r="V74" s="61"/>
-      <c r="W74" s="61"/>
-      <c r="X74" s="61"/>
-      <c r="Y74" s="61"/>
-      <c r="Z74" s="61"/>
-      <c r="AA74" s="61"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="60"/>
+      <c r="N74" s="60"/>
+      <c r="O74" s="60"/>
+      <c r="P74" s="60"/>
+      <c r="Q74" s="60"/>
+      <c r="R74" s="60"/>
+      <c r="S74" s="60"/>
+      <c r="T74" s="60"/>
+      <c r="U74" s="60"/>
+      <c r="V74" s="60"/>
+      <c r="W74" s="60"/>
+      <c r="X74" s="60"/>
+      <c r="Y74" s="60"/>
+      <c r="Z74" s="60"/>
+      <c r="AA74" s="60"/>
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="25" t="s">
@@ -14577,28 +14574,28 @@
       <c r="G75" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="H75" s="57"/>
+      <c r="H75" s="56"/>
       <c r="I75" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J75" s="57"/>
-      <c r="K75" s="57"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="61"/>
-      <c r="N75" s="61"/>
-      <c r="O75" s="61"/>
-      <c r="P75" s="61"/>
-      <c r="Q75" s="61"/>
-      <c r="R75" s="61"/>
-      <c r="S75" s="61"/>
-      <c r="T75" s="61"/>
-      <c r="U75" s="61"/>
-      <c r="V75" s="61"/>
-      <c r="W75" s="61"/>
-      <c r="X75" s="61"/>
-      <c r="Y75" s="61"/>
-      <c r="Z75" s="61"/>
-      <c r="AA75" s="61"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="60"/>
+      <c r="N75" s="60"/>
+      <c r="O75" s="60"/>
+      <c r="P75" s="60"/>
+      <c r="Q75" s="60"/>
+      <c r="R75" s="60"/>
+      <c r="S75" s="60"/>
+      <c r="T75" s="60"/>
+      <c r="U75" s="60"/>
+      <c r="V75" s="60"/>
+      <c r="W75" s="60"/>
+      <c r="X75" s="60"/>
+      <c r="Y75" s="60"/>
+      <c r="Z75" s="60"/>
+      <c r="AA75" s="60"/>
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="25" t="s">
@@ -14622,28 +14619,28 @@
       <c r="G76" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="H76" s="57"/>
+      <c r="H76" s="56"/>
       <c r="I76" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J76" s="57"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="61"/>
-      <c r="P76" s="61"/>
-      <c r="Q76" s="61"/>
-      <c r="R76" s="61"/>
-      <c r="S76" s="61"/>
-      <c r="T76" s="61"/>
-      <c r="U76" s="61"/>
-      <c r="V76" s="61"/>
-      <c r="W76" s="61"/>
-      <c r="X76" s="61"/>
-      <c r="Y76" s="61"/>
-      <c r="Z76" s="61"/>
-      <c r="AA76" s="61"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
+      <c r="O76" s="60"/>
+      <c r="P76" s="60"/>
+      <c r="Q76" s="60"/>
+      <c r="R76" s="60"/>
+      <c r="S76" s="60"/>
+      <c r="T76" s="60"/>
+      <c r="U76" s="60"/>
+      <c r="V76" s="60"/>
+      <c r="W76" s="60"/>
+      <c r="X76" s="60"/>
+      <c r="Y76" s="60"/>
+      <c r="Z76" s="60"/>
+      <c r="AA76" s="60"/>
     </row>
     <row r="77" spans="1:27">
       <c r="A77" s="25" t="s">
@@ -14667,28 +14664,28 @@
       <c r="G77" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H77" s="57"/>
+      <c r="H77" s="56"/>
       <c r="I77" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J77" s="57"/>
-      <c r="K77" s="57"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="61"/>
-      <c r="N77" s="61"/>
-      <c r="O77" s="61"/>
-      <c r="P77" s="61"/>
-      <c r="Q77" s="61"/>
-      <c r="R77" s="61"/>
-      <c r="S77" s="61"/>
-      <c r="T77" s="61"/>
-      <c r="U77" s="61"/>
-      <c r="V77" s="61"/>
-      <c r="W77" s="61"/>
-      <c r="X77" s="61"/>
-      <c r="Y77" s="61"/>
-      <c r="Z77" s="61"/>
-      <c r="AA77" s="61"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="60"/>
+      <c r="N77" s="60"/>
+      <c r="O77" s="60"/>
+      <c r="P77" s="60"/>
+      <c r="Q77" s="60"/>
+      <c r="R77" s="60"/>
+      <c r="S77" s="60"/>
+      <c r="T77" s="60"/>
+      <c r="U77" s="60"/>
+      <c r="V77" s="60"/>
+      <c r="W77" s="60"/>
+      <c r="X77" s="60"/>
+      <c r="Y77" s="60"/>
+      <c r="Z77" s="60"/>
+      <c r="AA77" s="60"/>
     </row>
     <row r="78" spans="1:27">
       <c r="A78" s="25" t="s">
@@ -14712,28 +14709,28 @@
       <c r="G78" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="H78" s="57"/>
+      <c r="H78" s="56"/>
       <c r="I78" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J78" s="57"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="61"/>
-      <c r="M78" s="61"/>
-      <c r="N78" s="61"/>
-      <c r="O78" s="61"/>
-      <c r="P78" s="61"/>
-      <c r="Q78" s="61"/>
-      <c r="R78" s="61"/>
-      <c r="S78" s="61"/>
-      <c r="T78" s="61"/>
-      <c r="U78" s="61"/>
-      <c r="V78" s="61"/>
-      <c r="W78" s="61"/>
-      <c r="X78" s="61"/>
-      <c r="Y78" s="61"/>
-      <c r="Z78" s="61"/>
-      <c r="AA78" s="61"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="60"/>
+      <c r="M78" s="60"/>
+      <c r="N78" s="60"/>
+      <c r="O78" s="60"/>
+      <c r="P78" s="60"/>
+      <c r="Q78" s="60"/>
+      <c r="R78" s="60"/>
+      <c r="S78" s="60"/>
+      <c r="T78" s="60"/>
+      <c r="U78" s="60"/>
+      <c r="V78" s="60"/>
+      <c r="W78" s="60"/>
+      <c r="X78" s="60"/>
+      <c r="Y78" s="60"/>
+      <c r="Z78" s="60"/>
+      <c r="AA78" s="60"/>
     </row>
     <row r="79" spans="1:27">
       <c r="A79" s="25" t="s">
@@ -14757,28 +14754,28 @@
       <c r="G79" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="H79" s="57"/>
+      <c r="H79" s="56"/>
       <c r="I79" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="61"/>
-      <c r="M79" s="61"/>
-      <c r="N79" s="61"/>
-      <c r="O79" s="61"/>
-      <c r="P79" s="61"/>
-      <c r="Q79" s="61"/>
-      <c r="R79" s="61"/>
-      <c r="S79" s="61"/>
-      <c r="T79" s="61"/>
-      <c r="U79" s="61"/>
-      <c r="V79" s="61"/>
-      <c r="W79" s="61"/>
-      <c r="X79" s="61"/>
-      <c r="Y79" s="61"/>
-      <c r="Z79" s="61"/>
-      <c r="AA79" s="61"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="60"/>
+      <c r="N79" s="60"/>
+      <c r="O79" s="60"/>
+      <c r="P79" s="60"/>
+      <c r="Q79" s="60"/>
+      <c r="R79" s="60"/>
+      <c r="S79" s="60"/>
+      <c r="T79" s="60"/>
+      <c r="U79" s="60"/>
+      <c r="V79" s="60"/>
+      <c r="W79" s="60"/>
+      <c r="X79" s="60"/>
+      <c r="Y79" s="60"/>
+      <c r="Z79" s="60"/>
+      <c r="AA79" s="60"/>
     </row>
     <row r="80" spans="1:27">
       <c r="A80" s="25" t="s">
@@ -14802,28 +14799,28 @@
       <c r="G80" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="H80" s="57"/>
+      <c r="H80" s="56"/>
       <c r="I80" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J80" s="57"/>
-      <c r="K80" s="57"/>
-      <c r="L80" s="61"/>
-      <c r="M80" s="61"/>
-      <c r="N80" s="61"/>
-      <c r="O80" s="61"/>
-      <c r="P80" s="61"/>
-      <c r="Q80" s="61"/>
-      <c r="R80" s="61"/>
-      <c r="S80" s="61"/>
-      <c r="T80" s="61"/>
-      <c r="U80" s="61"/>
-      <c r="V80" s="61"/>
-      <c r="W80" s="61"/>
-      <c r="X80" s="61"/>
-      <c r="Y80" s="61"/>
-      <c r="Z80" s="61"/>
-      <c r="AA80" s="61"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="60"/>
+      <c r="M80" s="60"/>
+      <c r="N80" s="60"/>
+      <c r="O80" s="60"/>
+      <c r="P80" s="60"/>
+      <c r="Q80" s="60"/>
+      <c r="R80" s="60"/>
+      <c r="S80" s="60"/>
+      <c r="T80" s="60"/>
+      <c r="U80" s="60"/>
+      <c r="V80" s="60"/>
+      <c r="W80" s="60"/>
+      <c r="X80" s="60"/>
+      <c r="Y80" s="60"/>
+      <c r="Z80" s="60"/>
+      <c r="AA80" s="60"/>
     </row>
     <row r="81" spans="1:27">
       <c r="A81" s="25" t="s">
@@ -14847,28 +14844,28 @@
       <c r="G81" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="H81" s="57"/>
+      <c r="H81" s="56"/>
       <c r="I81" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J81" s="57"/>
-      <c r="K81" s="57"/>
-      <c r="L81" s="61"/>
-      <c r="M81" s="61"/>
-      <c r="N81" s="61"/>
-      <c r="O81" s="61"/>
-      <c r="P81" s="61"/>
-      <c r="Q81" s="61"/>
-      <c r="R81" s="61"/>
-      <c r="S81" s="61"/>
-      <c r="T81" s="61"/>
-      <c r="U81" s="61"/>
-      <c r="V81" s="61"/>
-      <c r="W81" s="61"/>
-      <c r="X81" s="61"/>
-      <c r="Y81" s="61"/>
-      <c r="Z81" s="61"/>
-      <c r="AA81" s="61"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="60"/>
+      <c r="N81" s="60"/>
+      <c r="O81" s="60"/>
+      <c r="P81" s="60"/>
+      <c r="Q81" s="60"/>
+      <c r="R81" s="60"/>
+      <c r="S81" s="60"/>
+      <c r="T81" s="60"/>
+      <c r="U81" s="60"/>
+      <c r="V81" s="60"/>
+      <c r="W81" s="60"/>
+      <c r="X81" s="60"/>
+      <c r="Y81" s="60"/>
+      <c r="Z81" s="60"/>
+      <c r="AA81" s="60"/>
     </row>
     <row r="82" spans="1:27">
       <c r="A82" s="25" t="s">
@@ -14892,28 +14889,28 @@
       <c r="G82" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="H82" s="57"/>
+      <c r="H82" s="56"/>
       <c r="I82" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J82" s="57"/>
-      <c r="K82" s="57"/>
-      <c r="L82" s="61"/>
-      <c r="M82" s="61"/>
-      <c r="N82" s="61"/>
-      <c r="O82" s="61"/>
-      <c r="P82" s="61"/>
-      <c r="Q82" s="61"/>
-      <c r="R82" s="61"/>
-      <c r="S82" s="61"/>
-      <c r="T82" s="61"/>
-      <c r="U82" s="61"/>
-      <c r="V82" s="61"/>
-      <c r="W82" s="61"/>
-      <c r="X82" s="61"/>
-      <c r="Y82" s="61"/>
-      <c r="Z82" s="61"/>
-      <c r="AA82" s="61"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="60"/>
+      <c r="M82" s="60"/>
+      <c r="N82" s="60"/>
+      <c r="O82" s="60"/>
+      <c r="P82" s="60"/>
+      <c r="Q82" s="60"/>
+      <c r="R82" s="60"/>
+      <c r="S82" s="60"/>
+      <c r="T82" s="60"/>
+      <c r="U82" s="60"/>
+      <c r="V82" s="60"/>
+      <c r="W82" s="60"/>
+      <c r="X82" s="60"/>
+      <c r="Y82" s="60"/>
+      <c r="Z82" s="60"/>
+      <c r="AA82" s="60"/>
     </row>
     <row r="83" spans="1:27">
       <c r="A83" s="25" t="s">
@@ -14937,28 +14934,28 @@
       <c r="G83" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="H83" s="57"/>
+      <c r="H83" s="56"/>
       <c r="I83" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J83" s="57"/>
-      <c r="K83" s="57"/>
-      <c r="L83" s="61"/>
-      <c r="M83" s="61"/>
-      <c r="N83" s="61"/>
-      <c r="O83" s="61"/>
-      <c r="P83" s="61"/>
-      <c r="Q83" s="61"/>
-      <c r="R83" s="61"/>
-      <c r="S83" s="61"/>
-      <c r="T83" s="61"/>
-      <c r="U83" s="61"/>
-      <c r="V83" s="61"/>
-      <c r="W83" s="61"/>
-      <c r="X83" s="61"/>
-      <c r="Y83" s="61"/>
-      <c r="Z83" s="61"/>
-      <c r="AA83" s="61"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="60"/>
+      <c r="N83" s="60"/>
+      <c r="O83" s="60"/>
+      <c r="P83" s="60"/>
+      <c r="Q83" s="60"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="60"/>
+      <c r="T83" s="60"/>
+      <c r="U83" s="60"/>
+      <c r="V83" s="60"/>
+      <c r="W83" s="60"/>
+      <c r="X83" s="60"/>
+      <c r="Y83" s="60"/>
+      <c r="Z83" s="60"/>
+      <c r="AA83" s="60"/>
     </row>
     <row r="84" spans="1:27">
       <c r="A84" s="25" t="s">
@@ -14982,28 +14979,28 @@
       <c r="G84" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="H84" s="57"/>
+      <c r="H84" s="56"/>
       <c r="I84" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J84" s="57"/>
-      <c r="K84" s="57"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="61"/>
-      <c r="O84" s="61"/>
-      <c r="P84" s="61"/>
-      <c r="Q84" s="61"/>
-      <c r="R84" s="61"/>
-      <c r="S84" s="61"/>
-      <c r="T84" s="61"/>
-      <c r="U84" s="61"/>
-      <c r="V84" s="61"/>
-      <c r="W84" s="61"/>
-      <c r="X84" s="61"/>
-      <c r="Y84" s="61"/>
-      <c r="Z84" s="61"/>
-      <c r="AA84" s="61"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="60"/>
+      <c r="M84" s="60"/>
+      <c r="N84" s="60"/>
+      <c r="O84" s="60"/>
+      <c r="P84" s="60"/>
+      <c r="Q84" s="60"/>
+      <c r="R84" s="60"/>
+      <c r="S84" s="60"/>
+      <c r="T84" s="60"/>
+      <c r="U84" s="60"/>
+      <c r="V84" s="60"/>
+      <c r="W84" s="60"/>
+      <c r="X84" s="60"/>
+      <c r="Y84" s="60"/>
+      <c r="Z84" s="60"/>
+      <c r="AA84" s="60"/>
     </row>
     <row r="85" spans="1:27">
       <c r="A85" s="25" t="s">
@@ -15027,28 +15024,28 @@
       <c r="G85" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="H85" s="57"/>
+      <c r="H85" s="56"/>
       <c r="I85" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J85" s="57"/>
-      <c r="K85" s="57"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="61"/>
-      <c r="P85" s="61"/>
-      <c r="Q85" s="61"/>
-      <c r="R85" s="61"/>
-      <c r="S85" s="61"/>
-      <c r="T85" s="61"/>
-      <c r="U85" s="61"/>
-      <c r="V85" s="61"/>
-      <c r="W85" s="61"/>
-      <c r="X85" s="61"/>
-      <c r="Y85" s="61"/>
-      <c r="Z85" s="61"/>
-      <c r="AA85" s="61"/>
+      <c r="J85" s="56"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="60"/>
+      <c r="N85" s="60"/>
+      <c r="O85" s="60"/>
+      <c r="P85" s="60"/>
+      <c r="Q85" s="60"/>
+      <c r="R85" s="60"/>
+      <c r="S85" s="60"/>
+      <c r="T85" s="60"/>
+      <c r="U85" s="60"/>
+      <c r="V85" s="60"/>
+      <c r="W85" s="60"/>
+      <c r="X85" s="60"/>
+      <c r="Y85" s="60"/>
+      <c r="Z85" s="60"/>
+      <c r="AA85" s="60"/>
     </row>
     <row r="86" spans="1:27">
       <c r="A86" s="25" t="s">
@@ -15072,28 +15069,28 @@
       <c r="G86" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="H86" s="57"/>
+      <c r="H86" s="56"/>
       <c r="I86" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J86" s="57"/>
-      <c r="K86" s="57"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="61"/>
-      <c r="N86" s="61"/>
-      <c r="O86" s="61"/>
-      <c r="P86" s="61"/>
-      <c r="Q86" s="61"/>
-      <c r="R86" s="61"/>
-      <c r="S86" s="61"/>
-      <c r="T86" s="61"/>
-      <c r="U86" s="61"/>
-      <c r="V86" s="61"/>
-      <c r="W86" s="61"/>
-      <c r="X86" s="61"/>
-      <c r="Y86" s="61"/>
-      <c r="Z86" s="61"/>
-      <c r="AA86" s="61"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="60"/>
+      <c r="N86" s="60"/>
+      <c r="O86" s="60"/>
+      <c r="P86" s="60"/>
+      <c r="Q86" s="60"/>
+      <c r="R86" s="60"/>
+      <c r="S86" s="60"/>
+      <c r="T86" s="60"/>
+      <c r="U86" s="60"/>
+      <c r="V86" s="60"/>
+      <c r="W86" s="60"/>
+      <c r="X86" s="60"/>
+      <c r="Y86" s="60"/>
+      <c r="Z86" s="60"/>
+      <c r="AA86" s="60"/>
     </row>
     <row r="87" ht="42" spans="1:12">
       <c r="A87" s="25" t="s">
@@ -15117,13 +15114,13 @@
       <c r="G87" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="H87" s="57"/>
+      <c r="H87" s="56"/>
       <c r="I87" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J87" s="57"/>
-      <c r="K87" s="57"/>
-      <c r="L87" s="54" t="s">
+      <c r="J87" s="56"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15149,13 +15146,13 @@
       <c r="G88" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="H88" s="57"/>
+      <c r="H88" s="56"/>
       <c r="I88" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J88" s="57"/>
-      <c r="K88" s="57"/>
-      <c r="L88" s="54" t="s">
+      <c r="J88" s="56"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15181,13 +15178,13 @@
       <c r="G89" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="H89" s="57"/>
+      <c r="H89" s="56"/>
       <c r="I89" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J89" s="57"/>
-      <c r="K89" s="57"/>
-      <c r="L89" s="54" t="s">
+      <c r="J89" s="56"/>
+      <c r="K89" s="56"/>
+      <c r="L89" s="53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15213,13 +15210,13 @@
       <c r="G90" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="H90" s="57"/>
+      <c r="H90" s="56"/>
       <c r="I90" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J90" s="57"/>
-      <c r="K90" s="57"/>
-      <c r="L90" s="54" t="s">
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15245,13 +15242,13 @@
       <c r="G91" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="H91" s="57"/>
+      <c r="H91" s="56"/>
       <c r="I91" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J91" s="57"/>
-      <c r="K91" s="57"/>
-      <c r="L91" s="54" t="s">
+      <c r="J91" s="56"/>
+      <c r="K91" s="56"/>
+      <c r="L91" s="53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15277,13 +15274,13 @@
       <c r="G92" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="H92" s="57"/>
+      <c r="H92" s="56"/>
       <c r="I92" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J92" s="57"/>
-      <c r="K92" s="57"/>
-      <c r="L92" s="54" t="s">
+      <c r="J92" s="56"/>
+      <c r="K92" s="56"/>
+      <c r="L92" s="53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15309,13 +15306,13 @@
       <c r="G93" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="H93" s="57"/>
+      <c r="H93" s="56"/>
       <c r="I93" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J93" s="57"/>
-      <c r="K93" s="57"/>
-      <c r="L93" s="54" t="s">
+      <c r="J93" s="56"/>
+      <c r="K93" s="56"/>
+      <c r="L93" s="53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15341,13 +15338,13 @@
       <c r="G94" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="H94" s="57"/>
+      <c r="H94" s="56"/>
       <c r="I94" s="11" t="s">
         <v>125</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
-      <c r="L94" s="54" t="s">
+      <c r="L94" s="53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15373,13 +15370,13 @@
       <c r="G95" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="H95" s="57"/>
+      <c r="H95" s="56"/>
       <c r="I95" s="11" t="s">
         <v>125</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
-      <c r="L95" s="54" t="s">
+      <c r="L95" s="53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15405,13 +15402,13 @@
       <c r="G96" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="H96" s="57"/>
+      <c r="H96" s="56"/>
       <c r="I96" s="11" t="s">
         <v>125</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
-      <c r="L96" s="54" t="s">
+      <c r="L96" s="53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15437,7 +15434,7 @@
       <c r="G97" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="H97" s="57"/>
+      <c r="H97" s="56"/>
       <c r="I97" s="11" t="s">
         <v>125</v>
       </c>
@@ -15466,7 +15463,7 @@
       <c r="G98" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="H98" s="57"/>
+      <c r="H98" s="56"/>
       <c r="I98" s="11" t="s">
         <v>125</v>
       </c>
@@ -15495,7 +15492,7 @@
       <c r="G99" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="H99" s="57"/>
+      <c r="H99" s="56"/>
       <c r="I99" s="11" t="s">
         <v>125</v>
       </c>
@@ -15524,7 +15521,7 @@
       <c r="G100" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="H100" s="57"/>
+      <c r="H100" s="56"/>
       <c r="I100" s="11" t="s">
         <v>125</v>
       </c>
@@ -15553,7 +15550,7 @@
       <c r="G101" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="H101" s="57"/>
+      <c r="H101" s="56"/>
       <c r="I101" s="11" t="s">
         <v>125</v>
       </c>
@@ -15582,7 +15579,7 @@
       <c r="G102" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="H102" s="57"/>
+      <c r="H102" s="56"/>
       <c r="I102" s="11" t="s">
         <v>125</v>
       </c>
@@ -15611,7 +15608,7 @@
       <c r="G103" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="H103" s="57"/>
+      <c r="H103" s="56"/>
       <c r="I103" s="11" t="s">
         <v>125</v>
       </c>
@@ -15640,7 +15637,7 @@
       <c r="G104" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="H104" s="57"/>
+      <c r="H104" s="56"/>
       <c r="I104" s="11" t="s">
         <v>125</v>
       </c>
@@ -15669,7 +15666,7 @@
       <c r="G105" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="H105" s="57"/>
+      <c r="H105" s="56"/>
       <c r="I105" s="11" t="s">
         <v>125</v>
       </c>
@@ -15698,7 +15695,7 @@
       <c r="G106" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="H106" s="57"/>
+      <c r="H106" s="56"/>
       <c r="I106" s="11" t="s">
         <v>125</v>
       </c>
@@ -15727,7 +15724,7 @@
       <c r="G107" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="H107" s="57"/>
+      <c r="H107" s="56"/>
       <c r="I107" s="11" t="s">
         <v>125</v>
       </c>
@@ -15756,7 +15753,7 @@
       <c r="G108" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="H108" s="57"/>
+      <c r="H108" s="56"/>
       <c r="I108" s="11" t="s">
         <v>125</v>
       </c>
@@ -15785,7 +15782,7 @@
       <c r="G109" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="H109" s="57"/>
+      <c r="H109" s="56"/>
       <c r="I109" s="11" t="s">
         <v>125</v>
       </c>
@@ -15814,7 +15811,7 @@
       <c r="G110" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="H110" s="57"/>
+      <c r="H110" s="56"/>
       <c r="I110" s="11" t="s">
         <v>125</v>
       </c>
@@ -15843,7 +15840,7 @@
       <c r="G111" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="H111" s="57"/>
+      <c r="H111" s="56"/>
       <c r="I111" s="11" t="s">
         <v>125</v>
       </c>
@@ -15872,7 +15869,7 @@
       <c r="G112" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="H112" s="57"/>
+      <c r="H112" s="56"/>
       <c r="I112" s="11" t="s">
         <v>125</v>
       </c>
@@ -15901,7 +15898,7 @@
       <c r="G113" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="H113" s="57"/>
+      <c r="H113" s="56"/>
       <c r="I113" s="11" t="s">
         <v>125</v>
       </c>
@@ -15930,7 +15927,7 @@
       <c r="G114" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="H114" s="57"/>
+      <c r="H114" s="56"/>
       <c r="I114" s="11" t="s">
         <v>125</v>
       </c>
@@ -15959,7 +15956,7 @@
       <c r="G115" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="H115" s="57"/>
+      <c r="H115" s="56"/>
       <c r="I115" s="11" t="s">
         <v>125</v>
       </c>
@@ -15988,7 +15985,7 @@
       <c r="G116" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="H116" s="57"/>
+      <c r="H116" s="56"/>
       <c r="I116" s="11" t="s">
         <v>125</v>
       </c>
@@ -16017,7 +16014,7 @@
       <c r="G117" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="H117" s="57"/>
+      <c r="H117" s="56"/>
       <c r="I117" s="11" t="s">
         <v>125</v>
       </c>
@@ -16046,7 +16043,7 @@
       <c r="G118" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="H118" s="57"/>
+      <c r="H118" s="56"/>
       <c r="I118" s="11" t="s">
         <v>125</v>
       </c>
@@ -16075,7 +16072,7 @@
       <c r="G119" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="H119" s="57"/>
+      <c r="H119" s="56"/>
       <c r="I119" s="11" t="s">
         <v>125</v>
       </c>
@@ -16104,7 +16101,7 @@
       <c r="G120" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="H120" s="57"/>
+      <c r="H120" s="56"/>
       <c r="I120" s="11" t="s">
         <v>125</v>
       </c>
@@ -16133,7 +16130,7 @@
       <c r="G121" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="H121" s="57"/>
+      <c r="H121" s="56"/>
       <c r="I121" s="11" t="s">
         <v>125</v>
       </c>
@@ -16162,7 +16159,7 @@
       <c r="G122" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="H122" s="57"/>
+      <c r="H122" s="56"/>
       <c r="I122" s="11" t="s">
         <v>125</v>
       </c>
@@ -16191,7 +16188,7 @@
       <c r="G123" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="H123" s="57"/>
+      <c r="H123" s="56"/>
       <c r="I123" s="11" t="s">
         <v>125</v>
       </c>
@@ -16220,7 +16217,7 @@
       <c r="G124" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="H124" s="57"/>
+      <c r="H124" s="56"/>
       <c r="I124" s="11" t="s">
         <v>125</v>
       </c>
@@ -16249,7 +16246,7 @@
       <c r="G125" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="H125" s="57"/>
+      <c r="H125" s="56"/>
       <c r="I125" s="11" t="s">
         <v>125</v>
       </c>
@@ -16278,7 +16275,7 @@
       <c r="G126" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="H126" s="57"/>
+      <c r="H126" s="56"/>
       <c r="I126" s="11" t="s">
         <v>125</v>
       </c>
@@ -16307,7 +16304,7 @@
       <c r="G127" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="H127" s="57"/>
+      <c r="H127" s="56"/>
       <c r="I127" s="11" t="s">
         <v>125</v>
       </c>
@@ -16336,7 +16333,7 @@
       <c r="G128" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="H128" s="57"/>
+      <c r="H128" s="56"/>
       <c r="I128" s="11" t="s">
         <v>125</v>
       </c>
@@ -16365,7 +16362,7 @@
       <c r="G129" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="H129" s="57"/>
+      <c r="H129" s="56"/>
       <c r="I129" s="11" t="s">
         <v>125</v>
       </c>
@@ -16394,7 +16391,7 @@
       <c r="G130" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="H130" s="57"/>
+      <c r="H130" s="56"/>
       <c r="I130" s="11" t="s">
         <v>125</v>
       </c>
@@ -16423,7 +16420,7 @@
       <c r="G131" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="H131" s="57"/>
+      <c r="H131" s="56"/>
       <c r="I131" s="11" t="s">
         <v>125</v>
       </c>
@@ -16452,7 +16449,7 @@
       <c r="G132" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="H132" s="57"/>
+      <c r="H132" s="56"/>
       <c r="I132" s="11" t="s">
         <v>125</v>
       </c>
@@ -16481,7 +16478,7 @@
       <c r="G133" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="H133" s="57"/>
+      <c r="H133" s="56"/>
       <c r="I133" s="11" t="s">
         <v>125</v>
       </c>
@@ -16510,7 +16507,7 @@
       <c r="G134" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="H134" s="57"/>
+      <c r="H134" s="56"/>
       <c r="I134" s="11" t="s">
         <v>125</v>
       </c>
@@ -16539,7 +16536,7 @@
       <c r="G135" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="H135" s="57"/>
+      <c r="H135" s="56"/>
       <c r="I135" s="11" t="s">
         <v>125</v>
       </c>
@@ -16568,7 +16565,7 @@
       <c r="G136" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="H136" s="57"/>
+      <c r="H136" s="56"/>
       <c r="I136" s="11" t="s">
         <v>125</v>
       </c>
@@ -16597,7 +16594,7 @@
       <c r="G137" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="H137" s="57"/>
+      <c r="H137" s="56"/>
       <c r="I137" s="11" t="s">
         <v>125</v>
       </c>
@@ -16626,7 +16623,7 @@
       <c r="G138" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="H138" s="57"/>
+      <c r="H138" s="56"/>
       <c r="I138" s="11" t="s">
         <v>125</v>
       </c>
@@ -16655,7 +16652,7 @@
       <c r="G139" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="H139" s="57"/>
+      <c r="H139" s="56"/>
       <c r="I139" s="11" t="s">
         <v>125</v>
       </c>
@@ -16684,7 +16681,7 @@
       <c r="G140" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="H140" s="57"/>
+      <c r="H140" s="56"/>
       <c r="I140" s="11" t="s">
         <v>125</v>
       </c>
@@ -16713,7 +16710,7 @@
       <c r="G141" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="H141" s="57"/>
+      <c r="H141" s="56"/>
       <c r="I141" s="11" t="s">
         <v>125</v>
       </c>
@@ -16742,7 +16739,7 @@
       <c r="G142" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="H142" s="57"/>
+      <c r="H142" s="56"/>
       <c r="I142" s="11" t="s">
         <v>125</v>
       </c>
@@ -16771,7 +16768,7 @@
       <c r="G143" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="H143" s="57"/>
+      <c r="H143" s="56"/>
       <c r="I143" s="11" t="s">
         <v>125</v>
       </c>
@@ -16800,7 +16797,7 @@
       <c r="G144" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="H144" s="57"/>
+      <c r="H144" s="56"/>
       <c r="I144" s="11" t="s">
         <v>125</v>
       </c>
@@ -16829,7 +16826,7 @@
       <c r="G145" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="H145" s="57"/>
+      <c r="H145" s="56"/>
       <c r="I145" s="11" t="s">
         <v>125</v>
       </c>
@@ -16858,7 +16855,7 @@
       <c r="G146" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="H146" s="57"/>
+      <c r="H146" s="56"/>
       <c r="I146" s="11" t="s">
         <v>125</v>
       </c>
@@ -16887,7 +16884,7 @@
       <c r="G147" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="H147" s="57"/>
+      <c r="H147" s="56"/>
       <c r="I147" s="11" t="s">
         <v>125</v>
       </c>
@@ -16916,7 +16913,7 @@
       <c r="G148" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="H148" s="57"/>
+      <c r="H148" s="56"/>
       <c r="I148" s="11" t="s">
         <v>125</v>
       </c>
@@ -16945,7 +16942,7 @@
       <c r="G149" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="H149" s="57"/>
+      <c r="H149" s="56"/>
       <c r="I149" s="11" t="s">
         <v>125</v>
       </c>
@@ -16974,7 +16971,7 @@
       <c r="G150" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="H150" s="57"/>
+      <c r="H150" s="56"/>
       <c r="I150" s="11" t="s">
         <v>125</v>
       </c>
@@ -17003,7 +17000,7 @@
       <c r="G151" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="H151" s="57"/>
+      <c r="H151" s="56"/>
       <c r="I151" s="11" t="s">
         <v>125</v>
       </c>
@@ -17032,7 +17029,7 @@
       <c r="G152" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="H152" s="57"/>
+      <c r="H152" s="56"/>
       <c r="I152" s="11" t="s">
         <v>125</v>
       </c>
@@ -17061,7 +17058,7 @@
       <c r="G153" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="H153" s="57"/>
+      <c r="H153" s="56"/>
       <c r="I153" s="11" t="s">
         <v>125</v>
       </c>
@@ -17090,7 +17087,7 @@
       <c r="G154" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="H154" s="57"/>
+      <c r="H154" s="56"/>
       <c r="I154" s="11" t="s">
         <v>125</v>
       </c>
@@ -17119,7 +17116,7 @@
       <c r="G155" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="H155" s="57"/>
+      <c r="H155" s="56"/>
       <c r="I155" s="11" t="s">
         <v>125</v>
       </c>
@@ -17148,7 +17145,7 @@
       <c r="G156" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="H156" s="57"/>
+      <c r="H156" s="56"/>
       <c r="I156" s="11" t="s">
         <v>125</v>
       </c>
@@ -17177,7 +17174,7 @@
       <c r="G157" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="H157" s="57"/>
+      <c r="H157" s="56"/>
       <c r="I157" s="11" t="s">
         <v>125</v>
       </c>
@@ -17206,7 +17203,7 @@
       <c r="G158" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="H158" s="57"/>
+      <c r="H158" s="56"/>
       <c r="I158" s="11" t="s">
         <v>125</v>
       </c>
@@ -17235,7 +17232,7 @@
       <c r="G159" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="H159" s="57"/>
+      <c r="H159" s="56"/>
       <c r="I159" s="11" t="s">
         <v>125</v>
       </c>
@@ -17264,7 +17261,7 @@
       <c r="G160" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="H160" s="57"/>
+      <c r="H160" s="56"/>
       <c r="I160" s="11" t="s">
         <v>125</v>
       </c>
@@ -17293,7 +17290,7 @@
       <c r="G161" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="H161" s="57"/>
+      <c r="H161" s="56"/>
       <c r="I161" s="11" t="s">
         <v>125</v>
       </c>
@@ -17322,7 +17319,7 @@
       <c r="G162" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="H162" s="57"/>
+      <c r="H162" s="56"/>
       <c r="I162" s="11" t="s">
         <v>125</v>
       </c>
@@ -17351,7 +17348,7 @@
       <c r="G163" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="H163" s="57"/>
+      <c r="H163" s="56"/>
       <c r="I163" s="11" t="s">
         <v>125</v>
       </c>
@@ -17380,7 +17377,7 @@
       <c r="G164" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="H164" s="57"/>
+      <c r="H164" s="56"/>
       <c r="I164" s="11" t="s">
         <v>125</v>
       </c>
@@ -17409,7 +17406,7 @@
       <c r="G165" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="H165" s="57"/>
+      <c r="H165" s="56"/>
       <c r="I165" s="11" t="s">
         <v>125</v>
       </c>
@@ -17438,7 +17435,7 @@
       <c r="G166" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="H166" s="57"/>
+      <c r="H166" s="56"/>
       <c r="I166" s="11" t="s">
         <v>125</v>
       </c>
@@ -17467,7 +17464,7 @@
       <c r="G167" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="H167" s="57"/>
+      <c r="H167" s="56"/>
       <c r="I167" s="11" t="s">
         <v>125</v>
       </c>
@@ -17496,7 +17493,7 @@
       <c r="G168" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="H168" s="57"/>
+      <c r="H168" s="56"/>
       <c r="I168" s="11" t="s">
         <v>125</v>
       </c>
@@ -17525,7 +17522,7 @@
       <c r="G169" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="H169" s="57"/>
+      <c r="H169" s="56"/>
       <c r="I169" s="11" t="s">
         <v>125</v>
       </c>
@@ -17554,7 +17551,7 @@
       <c r="G170" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="H170" s="57"/>
+      <c r="H170" s="56"/>
       <c r="I170" s="11" t="s">
         <v>125</v>
       </c>
@@ -17622,7 +17619,7 @@
       <c r="G174" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="H174" s="57"/>
+      <c r="H174" s="56"/>
       <c r="I174" s="11" t="s">
         <v>125</v>
       </c>
@@ -17649,7 +17646,7 @@
       <c r="G175" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="H175" s="57"/>
+      <c r="H175" s="56"/>
       <c r="I175" s="11" t="s">
         <v>125</v>
       </c>
@@ -17676,7 +17673,7 @@
       <c r="G176" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="H176" s="57"/>
+      <c r="H176" s="56"/>
       <c r="I176" s="11" t="s">
         <v>125</v>
       </c>
@@ -17703,7 +17700,7 @@
       <c r="G177" s="11" t="s">
         <v>733</v>
       </c>
-      <c r="H177" s="57"/>
+      <c r="H177" s="56"/>
       <c r="I177" s="11" t="s">
         <v>125</v>
       </c>
@@ -17730,7 +17727,7 @@
       <c r="G178" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="H178" s="57"/>
+      <c r="H178" s="56"/>
       <c r="I178" s="11" t="s">
         <v>125</v>
       </c>
@@ -17757,7 +17754,7 @@
       <c r="G179" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="H179" s="57"/>
+      <c r="H179" s="56"/>
       <c r="I179" s="11" t="s">
         <v>125</v>
       </c>
@@ -17784,7 +17781,7 @@
       <c r="G180" s="11" t="s">
         <v>745</v>
       </c>
-      <c r="H180" s="57"/>
+      <c r="H180" s="56"/>
       <c r="I180" s="11" t="s">
         <v>125</v>
       </c>
@@ -17811,7 +17808,7 @@
       <c r="G181" s="11" t="s">
         <v>749</v>
       </c>
-      <c r="H181" s="57"/>
+      <c r="H181" s="56"/>
       <c r="I181" s="11" t="s">
         <v>125</v>
       </c>
@@ -17838,7 +17835,7 @@
       <c r="G182" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="H182" s="57"/>
+      <c r="H182" s="56"/>
       <c r="I182" s="11" t="s">
         <v>125</v>
       </c>
@@ -17865,7 +17862,7 @@
       <c r="G183" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="H183" s="57"/>
+      <c r="H183" s="56"/>
       <c r="I183" s="11" t="s">
         <v>125</v>
       </c>
@@ -17892,7 +17889,7 @@
       <c r="G184" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="H184" s="57"/>
+      <c r="H184" s="56"/>
       <c r="I184" s="11" t="s">
         <v>125</v>
       </c>
@@ -17919,7 +17916,7 @@
       <c r="G185" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="H185" s="57"/>
+      <c r="H185" s="56"/>
       <c r="I185" s="11" t="s">
         <v>125</v>
       </c>
@@ -17946,7 +17943,7 @@
       <c r="G186" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="H186" s="57"/>
+      <c r="H186" s="56"/>
       <c r="I186" s="11" t="s">
         <v>125</v>
       </c>
@@ -17973,7 +17970,7 @@
       <c r="G187" s="11" t="s">
         <v>773</v>
       </c>
-      <c r="H187" s="57"/>
+      <c r="H187" s="56"/>
       <c r="I187" s="11" t="s">
         <v>125</v>
       </c>
@@ -18000,7 +17997,7 @@
       <c r="G188" s="11" t="s">
         <v>777</v>
       </c>
-      <c r="H188" s="57"/>
+      <c r="H188" s="56"/>
       <c r="I188" s="11" t="s">
         <v>125</v>
       </c>
@@ -18027,7 +18024,7 @@
       <c r="G189" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="H189" s="57"/>
+      <c r="H189" s="56"/>
       <c r="I189" s="11" t="s">
         <v>125</v>
       </c>
@@ -18054,7 +18051,7 @@
       <c r="G190" s="11" t="s">
         <v>785</v>
       </c>
-      <c r="H190" s="57"/>
+      <c r="H190" s="56"/>
       <c r="I190" s="11" t="s">
         <v>125</v>
       </c>
@@ -18081,7 +18078,7 @@
       <c r="G191" s="11" t="s">
         <v>789</v>
       </c>
-      <c r="H191" s="57"/>
+      <c r="H191" s="56"/>
       <c r="I191" s="11" t="s">
         <v>125</v>
       </c>
@@ -18108,7 +18105,7 @@
       <c r="G192" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="H192" s="57"/>
+      <c r="H192" s="56"/>
       <c r="I192" s="11" t="s">
         <v>125</v>
       </c>
@@ -18135,7 +18132,7 @@
       <c r="G193" s="11" t="s">
         <v>797</v>
       </c>
-      <c r="H193" s="57"/>
+      <c r="H193" s="56"/>
       <c r="I193" s="11" t="s">
         <v>125</v>
       </c>
@@ -18162,7 +18159,7 @@
       <c r="G194" s="11" t="s">
         <v>801</v>
       </c>
-      <c r="H194" s="57"/>
+      <c r="H194" s="56"/>
       <c r="I194" s="11" t="s">
         <v>125</v>
       </c>
@@ -18189,7 +18186,7 @@
       <c r="G195" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="H195" s="57"/>
+      <c r="H195" s="56"/>
       <c r="I195" s="11" t="s">
         <v>125</v>
       </c>
@@ -18216,7 +18213,7 @@
       <c r="G196" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="H196" s="57"/>
+      <c r="H196" s="56"/>
       <c r="I196" s="11" t="s">
         <v>125</v>
       </c>
@@ -18243,7 +18240,7 @@
       <c r="G197" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="H197" s="57"/>
+      <c r="H197" s="56"/>
       <c r="I197" s="11" t="s">
         <v>125</v>
       </c>
@@ -18267,7 +18264,7 @@
       <c r="G198" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="H198" s="57"/>
+      <c r="H198" s="56"/>
       <c r="I198" s="11" t="s">
         <v>125</v>
       </c>
@@ -18291,7 +18288,7 @@
       <c r="G199" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="H199" s="57"/>
+      <c r="H199" s="56"/>
       <c r="I199" s="11" t="s">
         <v>125</v>
       </c>
@@ -18315,7 +18312,7 @@
       <c r="G200" s="11" t="s">
         <v>822</v>
       </c>
-      <c r="H200" s="57"/>
+      <c r="H200" s="56"/>
       <c r="I200" s="11" t="s">
         <v>125</v>
       </c>
@@ -18339,7 +18336,7 @@
       <c r="G201" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="H201" s="57"/>
+      <c r="H201" s="56"/>
       <c r="I201" s="11" t="s">
         <v>125</v>
       </c>
@@ -18363,7 +18360,7 @@
       <c r="G202" s="11" t="s">
         <v>828</v>
       </c>
-      <c r="H202" s="57"/>
+      <c r="H202" s="56"/>
       <c r="I202" s="11" t="s">
         <v>125</v>
       </c>
@@ -18387,7 +18384,7 @@
       <c r="G203" s="11" t="s">
         <v>831</v>
       </c>
-      <c r="H203" s="57"/>
+      <c r="H203" s="56"/>
       <c r="I203" s="11" t="s">
         <v>125</v>
       </c>
@@ -18411,7 +18408,7 @@
       <c r="G204" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="H204" s="57"/>
+      <c r="H204" s="56"/>
       <c r="I204" s="11" t="s">
         <v>125</v>
       </c>
@@ -18435,7 +18432,7 @@
       <c r="G205" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="H205" s="57"/>
+      <c r="H205" s="56"/>
       <c r="I205" s="11" t="s">
         <v>125</v>
       </c>
@@ -18459,7 +18456,7 @@
       <c r="G206" s="11" t="s">
         <v>840</v>
       </c>
-      <c r="H206" s="57"/>
+      <c r="H206" s="56"/>
       <c r="I206" s="11" t="s">
         <v>125</v>
       </c>
@@ -18483,7 +18480,7 @@
       <c r="G207" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="H207" s="57"/>
+      <c r="H207" s="56"/>
       <c r="I207" s="11" t="s">
         <v>125</v>
       </c>
@@ -18507,7 +18504,7 @@
       <c r="G208" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="H208" s="57"/>
+      <c r="H208" s="56"/>
       <c r="I208" s="11" t="s">
         <v>125</v>
       </c>
@@ -18531,7 +18528,7 @@
       <c r="G209" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="H209" s="57"/>
+      <c r="H209" s="56"/>
       <c r="I209" s="11" t="s">
         <v>125</v>
       </c>
@@ -18555,7 +18552,7 @@
       <c r="G210" s="11" t="s">
         <v>852</v>
       </c>
-      <c r="H210" s="57"/>
+      <c r="H210" s="56"/>
       <c r="I210" s="11" t="s">
         <v>125</v>
       </c>
@@ -18579,7 +18576,7 @@
       <c r="G211" s="11" t="s">
         <v>855</v>
       </c>
-      <c r="H211" s="57"/>
+      <c r="H211" s="56"/>
       <c r="I211" s="11" t="s">
         <v>125</v>
       </c>
@@ -18603,7 +18600,7 @@
       <c r="G212" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="H212" s="57"/>
+      <c r="H212" s="56"/>
       <c r="I212" s="11" t="s">
         <v>125</v>
       </c>
@@ -18627,7 +18624,7 @@
       <c r="G213" s="11" t="s">
         <v>861</v>
       </c>
-      <c r="H213" s="57"/>
+      <c r="H213" s="56"/>
       <c r="I213" s="11" t="s">
         <v>125</v>
       </c>
@@ -18651,7 +18648,7 @@
       <c r="G214" s="11" t="s">
         <v>864</v>
       </c>
-      <c r="H214" s="57"/>
+      <c r="H214" s="56"/>
       <c r="I214" s="11" t="s">
         <v>125</v>
       </c>
@@ -18675,7 +18672,7 @@
       <c r="G215" s="11" t="s">
         <v>867</v>
       </c>
-      <c r="H215" s="57"/>
+      <c r="H215" s="56"/>
       <c r="I215" s="11" t="s">
         <v>125</v>
       </c>
@@ -18699,7 +18696,7 @@
       <c r="G216" s="11" t="s">
         <v>870</v>
       </c>
-      <c r="H216" s="57"/>
+      <c r="H216" s="56"/>
       <c r="I216" s="11" t="s">
         <v>125</v>
       </c>
@@ -18723,7 +18720,7 @@
       <c r="G217" s="11" t="s">
         <v>873</v>
       </c>
-      <c r="H217" s="57"/>
+      <c r="H217" s="56"/>
       <c r="I217" s="11" t="s">
         <v>125</v>
       </c>
@@ -18747,7 +18744,7 @@
       <c r="G218" s="11" t="s">
         <v>876</v>
       </c>
-      <c r="H218" s="57"/>
+      <c r="H218" s="56"/>
       <c r="I218" s="11" t="s">
         <v>125</v>
       </c>
@@ -18771,7 +18768,7 @@
       <c r="G219" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="H219" s="57"/>
+      <c r="H219" s="56"/>
       <c r="I219" s="11" t="s">
         <v>125</v>
       </c>
@@ -18795,7 +18792,7 @@
       <c r="G220" s="11" t="s">
         <v>882</v>
       </c>
-      <c r="H220" s="57"/>
+      <c r="H220" s="56"/>
       <c r="I220" s="11" t="s">
         <v>125</v>
       </c>
@@ -18819,7 +18816,7 @@
       <c r="G221" s="11" t="s">
         <v>885</v>
       </c>
-      <c r="H221" s="57"/>
+      <c r="H221" s="56"/>
       <c r="I221" s="11" t="s">
         <v>125</v>
       </c>
@@ -18840,7 +18837,7 @@
       <c r="G222" s="11" t="s">
         <v>887</v>
       </c>
-      <c r="H222" s="57"/>
+      <c r="H222" s="56"/>
       <c r="I222" s="11" t="s">
         <v>125</v>
       </c>
@@ -18861,7 +18858,7 @@
       <c r="G223" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="H223" s="57"/>
+      <c r="H223" s="56"/>
       <c r="I223" s="11" t="s">
         <v>125</v>
       </c>
@@ -18882,7 +18879,7 @@
       <c r="G224" s="11" t="s">
         <v>891</v>
       </c>
-      <c r="H224" s="57"/>
+      <c r="H224" s="56"/>
       <c r="I224" s="11" t="s">
         <v>125</v>
       </c>
@@ -18903,7 +18900,7 @@
       <c r="G225" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="H225" s="57"/>
+      <c r="H225" s="56"/>
       <c r="I225" s="11" t="s">
         <v>125</v>
       </c>
@@ -18924,7 +18921,7 @@
       <c r="G226" s="11" t="s">
         <v>895</v>
       </c>
-      <c r="H226" s="57"/>
+      <c r="H226" s="56"/>
       <c r="I226" s="11" t="s">
         <v>125</v>
       </c>
@@ -18945,7 +18942,7 @@
       <c r="G227" s="11" t="s">
         <v>897</v>
       </c>
-      <c r="H227" s="57"/>
+      <c r="H227" s="56"/>
       <c r="I227" s="11" t="s">
         <v>125</v>
       </c>
@@ -18966,7 +18963,7 @@
       <c r="G228" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="H228" s="57"/>
+      <c r="H228" s="56"/>
       <c r="I228" s="11" t="s">
         <v>125</v>
       </c>
@@ -18987,7 +18984,7 @@
       <c r="G229" s="11" t="s">
         <v>901</v>
       </c>
-      <c r="H229" s="57"/>
+      <c r="H229" s="56"/>
       <c r="I229" s="11" t="s">
         <v>125</v>
       </c>
@@ -19008,7 +19005,7 @@
       <c r="G230" s="11" t="s">
         <v>903</v>
       </c>
-      <c r="H230" s="57"/>
+      <c r="H230" s="56"/>
       <c r="I230" s="11" t="s">
         <v>125</v>
       </c>
@@ -19029,7 +19026,7 @@
       <c r="G231" s="11" t="s">
         <v>905</v>
       </c>
-      <c r="H231" s="57"/>
+      <c r="H231" s="56"/>
       <c r="I231" s="11" t="s">
         <v>125</v>
       </c>
@@ -19050,7 +19047,7 @@
       <c r="G232" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="H232" s="57"/>
+      <c r="H232" s="56"/>
       <c r="I232" s="11" t="s">
         <v>125</v>
       </c>
@@ -19071,7 +19068,7 @@
       <c r="G233" s="11" t="s">
         <v>909</v>
       </c>
-      <c r="H233" s="57"/>
+      <c r="H233" s="56"/>
       <c r="I233" s="11" t="s">
         <v>125</v>
       </c>
@@ -19092,7 +19089,7 @@
       <c r="G234" s="11" t="s">
         <v>911</v>
       </c>
-      <c r="H234" s="57"/>
+      <c r="H234" s="56"/>
       <c r="I234" s="11" t="s">
         <v>125</v>
       </c>
@@ -19113,7 +19110,7 @@
       <c r="G235" s="11" t="s">
         <v>913</v>
       </c>
-      <c r="H235" s="57"/>
+      <c r="H235" s="56"/>
       <c r="I235" s="11" t="s">
         <v>125</v>
       </c>
@@ -19134,7 +19131,7 @@
       <c r="G236" s="11" t="s">
         <v>915</v>
       </c>
-      <c r="H236" s="57"/>
+      <c r="H236" s="56"/>
       <c r="I236" s="11" t="s">
         <v>125</v>
       </c>
@@ -19155,7 +19152,7 @@
       <c r="G237" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="H237" s="57"/>
+      <c r="H237" s="56"/>
       <c r="I237" s="11" t="s">
         <v>125</v>
       </c>
@@ -19176,7 +19173,7 @@
       <c r="G238" s="11" t="s">
         <v>919</v>
       </c>
-      <c r="H238" s="57"/>
+      <c r="H238" s="56"/>
       <c r="I238" s="11" t="s">
         <v>125</v>
       </c>
@@ -19197,7 +19194,7 @@
       <c r="G239" s="11" t="s">
         <v>921</v>
       </c>
-      <c r="H239" s="57"/>
+      <c r="H239" s="56"/>
       <c r="I239" s="11" t="s">
         <v>125</v>
       </c>
@@ -19218,7 +19215,7 @@
       <c r="G240" s="11" t="s">
         <v>923</v>
       </c>
-      <c r="H240" s="57"/>
+      <c r="H240" s="56"/>
       <c r="I240" s="11" t="s">
         <v>125</v>
       </c>
@@ -19239,7 +19236,7 @@
       <c r="G241" s="11" t="s">
         <v>925</v>
       </c>
-      <c r="H241" s="57"/>
+      <c r="H241" s="56"/>
       <c r="I241" s="11" t="s">
         <v>125</v>
       </c>
@@ -19260,7 +19257,7 @@
       <c r="G242" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="H242" s="57"/>
+      <c r="H242" s="56"/>
       <c r="I242" s="11" t="s">
         <v>125</v>
       </c>
@@ -19281,7 +19278,7 @@
       <c r="G243" s="11" t="s">
         <v>929</v>
       </c>
-      <c r="H243" s="57"/>
+      <c r="H243" s="56"/>
       <c r="I243" s="11" t="s">
         <v>125</v>
       </c>
@@ -19302,7 +19299,7 @@
       <c r="G244" s="11" t="s">
         <v>931</v>
       </c>
-      <c r="H244" s="57"/>
+      <c r="H244" s="56"/>
       <c r="I244" s="11" t="s">
         <v>125</v>
       </c>
@@ -19323,7 +19320,7 @@
       <c r="G245" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="H245" s="57"/>
+      <c r="H245" s="56"/>
       <c r="I245" s="11" t="s">
         <v>125</v>
       </c>
@@ -19344,7 +19341,7 @@
       <c r="G246" s="11" t="s">
         <v>935</v>
       </c>
-      <c r="H246" s="57"/>
+      <c r="H246" s="56"/>
       <c r="I246" s="11" t="s">
         <v>125</v>
       </c>
@@ -19365,7 +19362,7 @@
       <c r="G247" s="11" t="s">
         <v>937</v>
       </c>
-      <c r="H247" s="57"/>
+      <c r="H247" s="56"/>
       <c r="I247" s="11" t="s">
         <v>125</v>
       </c>
@@ -19386,7 +19383,7 @@
       <c r="G248" s="11" t="s">
         <v>939</v>
       </c>
-      <c r="H248" s="57"/>
+      <c r="H248" s="56"/>
       <c r="I248" s="11" t="s">
         <v>125</v>
       </c>
@@ -19407,7 +19404,7 @@
       <c r="G249" s="11" t="s">
         <v>941</v>
       </c>
-      <c r="H249" s="57"/>
+      <c r="H249" s="56"/>
       <c r="I249" s="11" t="s">
         <v>125</v>
       </c>
@@ -19428,7 +19425,7 @@
       <c r="G250" s="11" t="s">
         <v>943</v>
       </c>
-      <c r="H250" s="57"/>
+      <c r="H250" s="56"/>
       <c r="I250" s="11" t="s">
         <v>125</v>
       </c>
@@ -19449,7 +19446,7 @@
       <c r="G251" s="11" t="s">
         <v>945</v>
       </c>
-      <c r="H251" s="57"/>
+      <c r="H251" s="56"/>
       <c r="I251" s="11" t="s">
         <v>125</v>
       </c>
@@ -19470,7 +19467,7 @@
       <c r="G252" s="11" t="s">
         <v>947</v>
       </c>
-      <c r="H252" s="57"/>
+      <c r="H252" s="56"/>
       <c r="I252" s="11" t="s">
         <v>125</v>
       </c>
@@ -19529,25 +19526,25 @@
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="1" spans="1:31">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>948</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>949</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>950</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>951</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="51" t="s">
         <v>952</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="51" t="s">
         <v>953</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="51" t="s">
         <v>954</v>
       </c>
       <c r="H1" s="22" t="s">
@@ -19672,23 +19669,23 @@
       <c r="Q2" s="14" t="s">
         <v>982</v>
       </c>
-      <c r="R2" s="53">
+      <c r="R2" s="52">
         <v>1000</v>
       </c>
       <c r="S2" s="14">
         <v>3</v>
       </c>
       <c r="T2" s="14"/>
-      <c r="U2" s="53">
+      <c r="U2" s="52">
         <v>5000</v>
       </c>
-      <c r="V2" s="53">
+      <c r="V2" s="52">
         <v>50</v>
       </c>
-      <c r="W2" s="53" t="s">
+      <c r="W2" s="52" t="s">
         <v>983</v>
       </c>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="52" t="s">
         <v>974</v>
       </c>
       <c r="Y2" s="13">
@@ -19712,8 +19709,8 @@
       <c r="AE2" s="40" t="s">
         <v>986</v>
       </c>
-      <c r="AG2" s="53"/>
-      <c r="AI2" s="53"/>
+      <c r="AG2" s="52"/>
+      <c r="AI2" s="52"/>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="40" t="s">
@@ -19764,23 +19761,23 @@
       <c r="Q3" s="14" t="s">
         <v>989</v>
       </c>
-      <c r="R3" s="53">
+      <c r="R3" s="52">
         <v>1001</v>
       </c>
       <c r="S3" s="14">
         <v>4</v>
       </c>
       <c r="T3" s="40"/>
-      <c r="U3" s="53">
+      <c r="U3" s="52">
         <v>5001</v>
       </c>
-      <c r="V3" s="53">
+      <c r="V3" s="52">
         <v>40</v>
       </c>
-      <c r="W3" s="53" t="s">
+      <c r="W3" s="52" t="s">
         <v>990</v>
       </c>
-      <c r="X3" s="53" t="s">
+      <c r="X3" s="52" t="s">
         <v>140</v>
       </c>
       <c r="AE3" s="40" t="s">
@@ -19836,23 +19833,23 @@
       <c r="Q4" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="R4" s="53">
+      <c r="R4" s="52">
         <v>1002</v>
       </c>
       <c r="S4" s="14">
         <v>5</v>
       </c>
       <c r="T4" s="14"/>
-      <c r="U4" s="53">
+      <c r="U4" s="52">
         <v>5002</v>
       </c>
-      <c r="V4" s="53">
+      <c r="V4" s="52">
         <v>30</v>
       </c>
-      <c r="W4" s="53" t="s">
+      <c r="W4" s="52" t="s">
         <v>990</v>
       </c>
-      <c r="X4" s="53" t="s">
+      <c r="X4" s="52" t="s">
         <v>974</v>
       </c>
       <c r="AE4" s="40" t="s">
@@ -19908,7 +19905,7 @@
       <c r="Q5" s="14" t="s">
         <v>999</v>
       </c>
-      <c r="R5" s="53">
+      <c r="R5" s="52">
         <v>1003</v>
       </c>
       <c r="S5" s="14">
@@ -19917,16 +19914,16 @@
       <c r="T5" s="40">
         <v>1000066002</v>
       </c>
-      <c r="U5" s="53">
+      <c r="U5" s="52">
         <v>5003</v>
       </c>
-      <c r="V5" s="53">
+      <c r="V5" s="52">
         <v>20</v>
       </c>
-      <c r="W5" s="53" t="s">
+      <c r="W5" s="52" t="s">
         <v>990</v>
       </c>
-      <c r="X5" s="53" t="s">
+      <c r="X5" s="52" t="s">
         <v>974</v>
       </c>
       <c r="AE5" s="40" t="s">
@@ -19982,23 +19979,23 @@
       <c r="Q6" s="14" t="s">
         <v>1005</v>
       </c>
-      <c r="R6" s="53">
+      <c r="R6" s="52">
         <v>1004</v>
       </c>
       <c r="S6" s="14">
         <v>7</v>
       </c>
       <c r="T6" s="14"/>
-      <c r="U6" s="53">
+      <c r="U6" s="52">
         <v>5004</v>
       </c>
-      <c r="V6" s="53" t="s">
+      <c r="V6" s="52" t="s">
         <v>974</v>
       </c>
-      <c r="W6" s="53" t="s">
+      <c r="W6" s="52" t="s">
         <v>974</v>
       </c>
-      <c r="X6" s="53" t="s">
+      <c r="X6" s="52" t="s">
         <v>974</v>
       </c>
       <c r="AE6" s="40" t="s">
@@ -20054,23 +20051,23 @@
       <c r="Q7" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="R7" s="53">
+      <c r="R7" s="52">
         <v>1005</v>
       </c>
       <c r="S7" s="14">
         <v>8</v>
       </c>
       <c r="T7" s="14"/>
-      <c r="U7" s="53">
+      <c r="U7" s="52">
         <v>5005</v>
       </c>
-      <c r="V7" s="53" t="s">
+      <c r="V7" s="52" t="s">
         <v>974</v>
       </c>
-      <c r="W7" s="53" t="s">
+      <c r="W7" s="52" t="s">
         <v>974</v>
       </c>
-      <c r="X7" s="53" t="s">
+      <c r="X7" s="52" t="s">
         <v>140</v>
       </c>
       <c r="AE7" s="40" t="s">
@@ -20126,23 +20123,23 @@
       <c r="Q8" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="R8" s="53">
+      <c r="R8" s="52">
         <v>1006</v>
       </c>
       <c r="S8" s="14">
         <v>9</v>
       </c>
       <c r="T8" s="14"/>
-      <c r="U8" s="53">
+      <c r="U8" s="52">
         <v>5006</v>
       </c>
-      <c r="V8" s="53" t="s">
+      <c r="V8" s="52" t="s">
         <v>974</v>
       </c>
-      <c r="W8" s="53" t="s">
+      <c r="W8" s="52" t="s">
         <v>974</v>
       </c>
-      <c r="X8" s="53" t="s">
+      <c r="X8" s="52" t="s">
         <v>974</v>
       </c>
       <c r="AE8" s="40" t="s">
@@ -20198,7 +20195,7 @@
       <c r="Q9" s="14" t="s">
         <v>1021</v>
       </c>
-      <c r="R9" s="53">
+      <c r="R9" s="52">
         <v>1007</v>
       </c>
       <c r="S9" s="14">
@@ -20207,16 +20204,16 @@
       <c r="T9" s="40">
         <v>1000066006</v>
       </c>
-      <c r="U9" s="53">
+      <c r="U9" s="52">
         <v>5007</v>
       </c>
-      <c r="V9" s="53" t="s">
+      <c r="V9" s="52" t="s">
         <v>974</v>
       </c>
-      <c r="W9" s="53" t="s">
+      <c r="W9" s="52" t="s">
         <v>974</v>
       </c>
-      <c r="X9" s="53" t="s">
+      <c r="X9" s="52" t="s">
         <v>974</v>
       </c>
       <c r="AE9" s="40" t="s">
@@ -20272,23 +20269,23 @@
       <c r="Q10" s="14" t="s">
         <v>1024</v>
       </c>
-      <c r="R10" s="53">
+      <c r="R10" s="52">
         <v>1008</v>
       </c>
       <c r="S10" s="14">
         <v>11</v>
       </c>
       <c r="T10" s="14"/>
-      <c r="U10" s="53">
+      <c r="U10" s="52">
         <v>5008</v>
       </c>
-      <c r="V10" s="53">
+      <c r="V10" s="52">
         <v>10</v>
       </c>
-      <c r="W10" s="53" t="s">
+      <c r="W10" s="52" t="s">
         <v>990</v>
       </c>
-      <c r="X10" s="53" t="s">
+      <c r="X10" s="52" t="s">
         <v>974</v>
       </c>
       <c r="AE10" s="40" t="s">
@@ -20344,23 +20341,23 @@
       <c r="Q11" s="14" t="s">
         <v>1029</v>
       </c>
-      <c r="R11" s="53">
+      <c r="R11" s="52">
         <v>1009</v>
       </c>
       <c r="S11" s="14">
         <v>12</v>
       </c>
       <c r="T11" s="14"/>
-      <c r="U11" s="53">
+      <c r="U11" s="52">
         <v>5009</v>
       </c>
-      <c r="V11" s="53" t="s">
+      <c r="V11" s="52" t="s">
         <v>974</v>
       </c>
-      <c r="W11" s="53" t="s">
+      <c r="W11" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="X11" s="53" t="s">
+      <c r="X11" s="52" t="s">
         <v>974</v>
       </c>
       <c r="AE11" s="40" t="s">
@@ -20416,19 +20413,19 @@
       <c r="Q12" s="14" t="s">
         <v>1032</v>
       </c>
-      <c r="R12" s="53">
+      <c r="R12" s="52">
         <v>1010</v>
       </c>
       <c r="S12" s="14">
         <v>13</v>
       </c>
       <c r="T12" s="14"/>
-      <c r="U12" s="53">
+      <c r="U12" s="52">
         <v>5010</v>
       </c>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
       <c r="AE12" s="14" t="s">
         <v>1030</v>
       </c>
@@ -20483,19 +20480,19 @@
       <c r="Q13" s="14" t="s">
         <v>1036</v>
       </c>
-      <c r="R13" s="53">
+      <c r="R13" s="52">
         <v>1011</v>
       </c>
       <c r="S13" s="14">
         <v>14</v>
       </c>
       <c r="T13" s="14"/>
-      <c r="U13" s="53">
+      <c r="U13" s="52">
         <v>5011</v>
       </c>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="14" t="s">
@@ -20547,19 +20544,19 @@
       <c r="Q14" s="14" t="s">
         <v>1040</v>
       </c>
-      <c r="R14" s="53">
+      <c r="R14" s="52">
         <v>1012</v>
       </c>
       <c r="S14" s="14">
         <v>15</v>
       </c>
       <c r="T14" s="14"/>
-      <c r="U14" s="53">
+      <c r="U14" s="52">
         <v>5012</v>
       </c>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="14" t="s">
@@ -20611,19 +20608,19 @@
       <c r="Q15" s="14" t="s">
         <v>1044</v>
       </c>
-      <c r="R15" s="53">
+      <c r="R15" s="52">
         <v>1013</v>
       </c>
       <c r="S15" s="14">
         <v>16</v>
       </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="53">
+      <c r="U15" s="52">
         <v>5013</v>
       </c>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="14" t="s">
@@ -20675,19 +20672,19 @@
       <c r="Q16" s="14" t="s">
         <v>1048</v>
       </c>
-      <c r="R16" s="53">
+      <c r="R16" s="52">
         <v>1014</v>
       </c>
       <c r="S16" s="14">
         <v>17</v>
       </c>
       <c r="T16" s="14"/>
-      <c r="U16" s="53">
+      <c r="U16" s="52">
         <v>5014</v>
       </c>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="14" t="s">
@@ -20739,19 +20736,19 @@
       <c r="Q17" s="14" t="s">
         <v>1052</v>
       </c>
-      <c r="R17" s="53">
+      <c r="R17" s="52">
         <v>1015</v>
       </c>
       <c r="S17" s="14">
         <v>18</v>
       </c>
       <c r="T17" s="14"/>
-      <c r="U17" s="53">
+      <c r="U17" s="52">
         <v>5015</v>
       </c>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="14" t="s">
@@ -20803,19 +20800,19 @@
       <c r="Q18" s="14" t="s">
         <v>1056</v>
       </c>
-      <c r="R18" s="53">
+      <c r="R18" s="52">
         <v>1016</v>
       </c>
       <c r="S18" s="14">
         <v>19</v>
       </c>
       <c r="T18" s="14"/>
-      <c r="U18" s="53">
+      <c r="U18" s="52">
         <v>5016</v>
       </c>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="14" t="s">
@@ -20867,19 +20864,19 @@
       <c r="Q19" s="14" t="s">
         <v>1059</v>
       </c>
-      <c r="R19" s="53">
+      <c r="R19" s="52">
         <v>1017</v>
       </c>
       <c r="S19" s="14">
         <v>20</v>
       </c>
       <c r="T19" s="14"/>
-      <c r="U19" s="53">
+      <c r="U19" s="52">
         <v>5017</v>
       </c>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="14" t="s">
@@ -20931,19 +20928,19 @@
       <c r="Q20" s="14" t="s">
         <v>1063</v>
       </c>
-      <c r="R20" s="53">
+      <c r="R20" s="52">
         <v>1018</v>
       </c>
       <c r="S20" s="14">
         <v>21</v>
       </c>
       <c r="T20" s="14"/>
-      <c r="U20" s="53">
+      <c r="U20" s="52">
         <v>5018</v>
       </c>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="14" t="s">
@@ -20995,19 +20992,19 @@
       <c r="Q21" s="14" t="s">
         <v>1067</v>
       </c>
-      <c r="R21" s="53">
+      <c r="R21" s="52">
         <v>1019</v>
       </c>
       <c r="S21" s="14">
         <v>22</v>
       </c>
       <c r="T21" s="14"/>
-      <c r="U21" s="53">
+      <c r="U21" s="52">
         <v>5019</v>
       </c>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="14" t="s">
@@ -21059,19 +21056,19 @@
       <c r="Q22" s="14" t="s">
         <v>1071</v>
       </c>
-      <c r="R22" s="53">
+      <c r="R22" s="52">
         <v>1020</v>
       </c>
       <c r="S22" s="14">
         <v>23</v>
       </c>
       <c r="T22" s="14"/>
-      <c r="U22" s="53">
+      <c r="U22" s="52">
         <v>5020</v>
       </c>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="14" t="s">
@@ -21123,19 +21120,19 @@
       <c r="Q23" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="R23" s="53">
+      <c r="R23" s="52">
         <v>1021</v>
       </c>
       <c r="S23" s="14">
         <v>24</v>
       </c>
       <c r="T23" s="14"/>
-      <c r="U23" s="53">
+      <c r="U23" s="52">
         <v>5021</v>
       </c>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="14" t="s">
@@ -21187,19 +21184,19 @@
       <c r="Q24" s="14" t="s">
         <v>1076</v>
       </c>
-      <c r="R24" s="53">
+      <c r="R24" s="52">
         <v>1022</v>
       </c>
       <c r="S24" s="14">
         <v>25</v>
       </c>
       <c r="T24" s="14"/>
-      <c r="U24" s="53">
+      <c r="U24" s="52">
         <v>5022</v>
       </c>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="14" t="s">
@@ -21251,19 +21248,19 @@
       <c r="Q25" s="14" t="s">
         <v>1077</v>
       </c>
-      <c r="R25" s="53">
+      <c r="R25" s="52">
         <v>1023</v>
       </c>
       <c r="S25" s="14">
         <v>26</v>
       </c>
       <c r="T25" s="14"/>
-      <c r="U25" s="53">
+      <c r="U25" s="52">
         <v>5023</v>
       </c>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="14" t="s">
@@ -21315,7 +21312,7 @@
       <c r="Q26" s="14" t="s">
         <v>1079</v>
       </c>
-      <c r="R26" s="53">
+      <c r="R26" s="52">
         <v>1024</v>
       </c>
       <c r="S26" s="14">
@@ -21324,16 +21321,16 @@
       <c r="T26" s="40">
         <v>1000066004</v>
       </c>
-      <c r="U26" s="53">
+      <c r="U26" s="52">
         <v>5024</v>
       </c>
-      <c r="V26" s="53" t="s">
+      <c r="V26" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="W26" s="53" t="s">
+      <c r="W26" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="X26" s="53"/>
+      <c r="X26" s="52"/>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="14" t="s">
@@ -21385,19 +21382,19 @@
       <c r="Q27" s="14" t="s">
         <v>1082</v>
       </c>
-      <c r="R27" s="53">
+      <c r="R27" s="52">
         <v>1025</v>
       </c>
       <c r="S27" s="14">
         <v>28</v>
       </c>
       <c r="T27" s="14"/>
-      <c r="U27" s="53">
+      <c r="U27" s="52">
         <v>5025</v>
       </c>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="14" t="s">
@@ -21449,19 +21446,19 @@
       <c r="Q28" s="14" t="s">
         <v>1084</v>
       </c>
-      <c r="R28" s="53">
+      <c r="R28" s="52">
         <v>1026</v>
       </c>
       <c r="S28" s="14">
         <v>29</v>
       </c>
       <c r="T28" s="14"/>
-      <c r="U28" s="53">
+      <c r="U28" s="52">
         <v>5026</v>
       </c>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="14" t="s">
@@ -21513,19 +21510,19 @@
       <c r="Q29" s="14" t="s">
         <v>1086</v>
       </c>
-      <c r="R29" s="53">
+      <c r="R29" s="52">
         <v>1027</v>
       </c>
       <c r="S29" s="14">
         <v>30</v>
       </c>
       <c r="T29" s="14"/>
-      <c r="U29" s="53">
+      <c r="U29" s="52">
         <v>5027</v>
       </c>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="14" t="s">
@@ -21577,19 +21574,19 @@
       <c r="Q30" s="14" t="s">
         <v>1088</v>
       </c>
-      <c r="R30" s="53">
+      <c r="R30" s="52">
         <v>1028</v>
       </c>
       <c r="S30" s="14">
         <v>31</v>
       </c>
       <c r="T30" s="14"/>
-      <c r="U30" s="53">
+      <c r="U30" s="52">
         <v>5028</v>
       </c>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="14" t="s">
@@ -21641,19 +21638,19 @@
       <c r="Q31" s="14" t="s">
         <v>1091</v>
       </c>
-      <c r="R31" s="53">
+      <c r="R31" s="52">
         <v>1029</v>
       </c>
       <c r="S31" s="14">
         <v>32</v>
       </c>
       <c r="T31" s="14"/>
-      <c r="U31" s="53">
+      <c r="U31" s="52">
         <v>5029</v>
       </c>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="14" t="s">
@@ -21705,19 +21702,19 @@
       <c r="Q32" s="14" t="s">
         <v>1093</v>
       </c>
-      <c r="R32" s="53">
+      <c r="R32" s="52">
         <v>1030</v>
       </c>
       <c r="S32" s="14">
         <v>33</v>
       </c>
       <c r="T32" s="14"/>
-      <c r="U32" s="53">
+      <c r="U32" s="52">
         <v>5030</v>
       </c>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="14" t="s">
@@ -21769,19 +21766,19 @@
       <c r="Q33" s="14" t="s">
         <v>1095</v>
       </c>
-      <c r="R33" s="53">
+      <c r="R33" s="52">
         <v>1031</v>
       </c>
       <c r="S33" s="14">
         <v>34</v>
       </c>
       <c r="T33" s="14"/>
-      <c r="U33" s="53">
+      <c r="U33" s="52">
         <v>5031</v>
       </c>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="14" t="s">
@@ -21833,19 +21830,19 @@
       <c r="Q34" s="14" t="s">
         <v>1097</v>
       </c>
-      <c r="R34" s="53">
+      <c r="R34" s="52">
         <v>1032</v>
       </c>
       <c r="S34" s="14">
         <v>35</v>
       </c>
       <c r="T34" s="14"/>
-      <c r="U34" s="53">
+      <c r="U34" s="52">
         <v>5032</v>
       </c>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="14" t="s">
@@ -21897,19 +21894,19 @@
       <c r="Q35" s="14" t="s">
         <v>1099</v>
       </c>
-      <c r="R35" s="53">
+      <c r="R35" s="52">
         <v>1033</v>
       </c>
       <c r="S35" s="14">
         <v>36</v>
       </c>
       <c r="T35" s="14"/>
-      <c r="U35" s="53">
+      <c r="U35" s="52">
         <v>5033</v>
       </c>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="14" t="s">
@@ -21961,19 +21958,19 @@
       <c r="Q36" s="14" t="s">
         <v>1102</v>
       </c>
-      <c r="R36" s="53">
+      <c r="R36" s="52">
         <v>1034</v>
       </c>
       <c r="S36" s="14">
         <v>37</v>
       </c>
       <c r="T36" s="14"/>
-      <c r="U36" s="53">
+      <c r="U36" s="52">
         <v>5034</v>
       </c>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="14" t="s">
@@ -22025,19 +22022,19 @@
       <c r="Q37" s="14" t="s">
         <v>1104</v>
       </c>
-      <c r="R37" s="53">
+      <c r="R37" s="52">
         <v>1035</v>
       </c>
       <c r="S37" s="14">
         <v>38</v>
       </c>
       <c r="T37" s="14"/>
-      <c r="U37" s="53">
+      <c r="U37" s="52">
         <v>5035</v>
       </c>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="14" t="s">
@@ -22089,19 +22086,19 @@
       <c r="Q38" s="14" t="s">
         <v>1106</v>
       </c>
-      <c r="R38" s="53">
+      <c r="R38" s="52">
         <v>1036</v>
       </c>
       <c r="S38" s="14">
         <v>39</v>
       </c>
       <c r="T38" s="14"/>
-      <c r="U38" s="53">
+      <c r="U38" s="52">
         <v>5036</v>
       </c>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="14" t="s">
@@ -22153,19 +22150,19 @@
       <c r="Q39" s="14" t="s">
         <v>1108</v>
       </c>
-      <c r="R39" s="53">
+      <c r="R39" s="52">
         <v>1037</v>
       </c>
       <c r="S39" s="14">
         <v>40</v>
       </c>
       <c r="T39" s="14"/>
-      <c r="U39" s="53">
+      <c r="U39" s="52">
         <v>5037</v>
       </c>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="14" t="s">
@@ -22217,19 +22214,19 @@
       <c r="Q40" s="14" t="s">
         <v>1110</v>
       </c>
-      <c r="R40" s="53">
+      <c r="R40" s="52">
         <v>1038</v>
       </c>
       <c r="S40" s="14">
         <v>41</v>
       </c>
       <c r="T40" s="14"/>
-      <c r="U40" s="53">
+      <c r="U40" s="52">
         <v>5038</v>
       </c>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="14" t="s">
@@ -22281,19 +22278,19 @@
       <c r="Q41" s="14" t="s">
         <v>1112</v>
       </c>
-      <c r="R41" s="53">
+      <c r="R41" s="52">
         <v>1039</v>
       </c>
       <c r="S41" s="14">
         <v>42</v>
       </c>
       <c r="T41" s="14"/>
-      <c r="U41" s="53">
+      <c r="U41" s="52">
         <v>5039</v>
       </c>
-      <c r="V41" s="53"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="53"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="14" t="s">
@@ -22345,19 +22342,19 @@
       <c r="Q42" s="14" t="s">
         <v>1114</v>
       </c>
-      <c r="R42" s="53">
+      <c r="R42" s="52">
         <v>1040</v>
       </c>
       <c r="S42" s="14">
         <v>43</v>
       </c>
       <c r="T42" s="14"/>
-      <c r="U42" s="53">
+      <c r="U42" s="52">
         <v>5040</v>
       </c>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="14" t="s">
@@ -22409,19 +22406,19 @@
       <c r="Q43" s="14" t="s">
         <v>1116</v>
       </c>
-      <c r="R43" s="53">
+      <c r="R43" s="52">
         <v>1041</v>
       </c>
       <c r="S43" s="14">
         <v>44</v>
       </c>
       <c r="T43" s="14"/>
-      <c r="U43" s="53">
+      <c r="U43" s="52">
         <v>5041</v>
       </c>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="14" t="s">
@@ -22473,19 +22470,19 @@
       <c r="Q44" s="14" t="s">
         <v>1118</v>
       </c>
-      <c r="R44" s="53">
+      <c r="R44" s="52">
         <v>1042</v>
       </c>
       <c r="S44" s="14">
         <v>45</v>
       </c>
       <c r="T44" s="14"/>
-      <c r="U44" s="53">
+      <c r="U44" s="52">
         <v>5042</v>
       </c>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="53"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="52"/>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="14" t="s">
@@ -22537,19 +22534,19 @@
       <c r="Q45" s="14" t="s">
         <v>1120</v>
       </c>
-      <c r="R45" s="53">
+      <c r="R45" s="52">
         <v>1043</v>
       </c>
       <c r="S45" s="14">
         <v>46</v>
       </c>
       <c r="T45" s="14"/>
-      <c r="U45" s="53">
+      <c r="U45" s="52">
         <v>5043</v>
       </c>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="52"/>
+      <c r="X45" s="52"/>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="14" t="s">
@@ -22601,19 +22598,19 @@
       <c r="Q46" s="14" t="s">
         <v>1122</v>
       </c>
-      <c r="R46" s="53">
+      <c r="R46" s="52">
         <v>1044</v>
       </c>
       <c r="S46" s="14">
         <v>47</v>
       </c>
       <c r="T46" s="14"/>
-      <c r="U46" s="53">
+      <c r="U46" s="52">
         <v>5044</v>
       </c>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
+      <c r="V46" s="52"/>
+      <c r="W46" s="52"/>
+      <c r="X46" s="52"/>
     </row>
     <row r="47" spans="1:24">
       <c r="A47" s="14" t="s">
@@ -22665,19 +22662,19 @@
       <c r="Q47" s="14" t="s">
         <v>1124</v>
       </c>
-      <c r="R47" s="53">
+      <c r="R47" s="52">
         <v>1045</v>
       </c>
       <c r="S47" s="14">
         <v>48</v>
       </c>
       <c r="T47" s="14"/>
-      <c r="U47" s="53">
+      <c r="U47" s="52">
         <v>5045</v>
       </c>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" s="14" t="s">
@@ -22729,19 +22726,19 @@
       <c r="Q48" s="14" t="s">
         <v>1126</v>
       </c>
-      <c r="R48" s="53">
+      <c r="R48" s="52">
         <v>1046</v>
       </c>
       <c r="S48" s="14">
         <v>49</v>
       </c>
       <c r="T48" s="14"/>
-      <c r="U48" s="53">
+      <c r="U48" s="52">
         <v>5046</v>
       </c>
-      <c r="V48" s="53"/>
-      <c r="W48" s="53"/>
-      <c r="X48" s="53"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="52"/>
+      <c r="X48" s="52"/>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="14" t="s">
@@ -22793,19 +22790,19 @@
       <c r="Q49" s="14" t="s">
         <v>1128</v>
       </c>
-      <c r="R49" s="53">
+      <c r="R49" s="52">
         <v>1047</v>
       </c>
       <c r="S49" s="14">
         <v>50</v>
       </c>
       <c r="T49" s="14"/>
-      <c r="U49" s="53">
+      <c r="U49" s="52">
         <v>5047</v>
       </c>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="14" t="s">
@@ -22857,19 +22854,19 @@
       <c r="Q50" s="14" t="s">
         <v>1130</v>
       </c>
-      <c r="R50" s="53">
+      <c r="R50" s="52">
         <v>1048</v>
       </c>
       <c r="S50" s="14">
         <v>51</v>
       </c>
       <c r="T50" s="14"/>
-      <c r="U50" s="53">
+      <c r="U50" s="52">
         <v>5048</v>
       </c>
-      <c r="V50" s="53"/>
-      <c r="W50" s="53"/>
-      <c r="X50" s="53"/>
+      <c r="V50" s="52"/>
+      <c r="W50" s="52"/>
+      <c r="X50" s="52"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="14" t="s">
@@ -22921,19 +22918,19 @@
       <c r="Q51" s="14" t="s">
         <v>1132</v>
       </c>
-      <c r="R51" s="53">
+      <c r="R51" s="52">
         <v>1049</v>
       </c>
       <c r="S51" s="14">
         <v>52</v>
       </c>
       <c r="T51" s="14"/>
-      <c r="U51" s="53">
+      <c r="U51" s="52">
         <v>5049</v>
       </c>
-      <c r="V51" s="53"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="53"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="52"/>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="14" t="s">
@@ -22985,19 +22982,19 @@
       <c r="Q52" s="14" t="s">
         <v>1134</v>
       </c>
-      <c r="R52" s="53">
+      <c r="R52" s="52">
         <v>1050</v>
       </c>
       <c r="S52" s="14">
         <v>53</v>
       </c>
       <c r="T52" s="14"/>
-      <c r="U52" s="53">
+      <c r="U52" s="52">
         <v>5050</v>
       </c>
-      <c r="V52" s="53"/>
-      <c r="W52" s="53"/>
-      <c r="X52" s="53"/>
+      <c r="V52" s="52"/>
+      <c r="W52" s="52"/>
+      <c r="X52" s="52"/>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="14" t="s">
@@ -23049,19 +23046,19 @@
       <c r="Q53" s="14" t="s">
         <v>1136</v>
       </c>
-      <c r="R53" s="53">
+      <c r="R53" s="52">
         <v>1051</v>
       </c>
       <c r="S53" s="14">
         <v>54</v>
       </c>
       <c r="T53" s="14"/>
-      <c r="U53" s="53">
+      <c r="U53" s="52">
         <v>5051</v>
       </c>
-      <c r="V53" s="53"/>
-      <c r="W53" s="53"/>
-      <c r="X53" s="53"/>
+      <c r="V53" s="52"/>
+      <c r="W53" s="52"/>
+      <c r="X53" s="52"/>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="14" t="s">
@@ -23113,19 +23110,19 @@
       <c r="Q54" s="14" t="s">
         <v>1138</v>
       </c>
-      <c r="R54" s="53">
+      <c r="R54" s="52">
         <v>1052</v>
       </c>
       <c r="S54" s="14">
         <v>55</v>
       </c>
       <c r="T54" s="14"/>
-      <c r="U54" s="53">
+      <c r="U54" s="52">
         <v>5052</v>
       </c>
-      <c r="V54" s="53"/>
-      <c r="W54" s="53"/>
-      <c r="X54" s="53"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="14" t="s">
@@ -23177,19 +23174,19 @@
       <c r="Q55" s="14" t="s">
         <v>1140</v>
       </c>
-      <c r="R55" s="53">
+      <c r="R55" s="52">
         <v>1053</v>
       </c>
       <c r="S55" s="14">
         <v>56</v>
       </c>
       <c r="T55" s="14"/>
-      <c r="U55" s="53">
+      <c r="U55" s="52">
         <v>5053</v>
       </c>
-      <c r="V55" s="53"/>
-      <c r="W55" s="53"/>
-      <c r="X55" s="53"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -23261,8 +23258,8 @@
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -23276,7 +23273,7 @@
     <col min="7" max="7" width="8.10185185185185"/>
     <col min="8" max="8" width="9.44444444444444"/>
     <col min="9" max="9" width="19.4351851851852"/>
-    <col min="10" max="10" width="10.2592592592593"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="13.7685185185185"/>
     <col min="12" max="12" width="10.2592592592593"/>
     <col min="13" max="13" width="8.23148148148148"/>
@@ -23359,14 +23356,14 @@
         <v>1150</v>
       </c>
       <c r="H2" s="45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>1151</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14" t="s">
-        <v>974</v>
+        <v>1152</v>
       </c>
       <c r="L2" s="34">
         <v>1</v>
@@ -23375,10 +23372,10 @@
         <v>4</v>
       </c>
       <c r="N2" s="40" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="P2" s="43" t="s">
         <v>1145</v>
@@ -23386,28 +23383,28 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="40" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C3" s="40">
         <v>8801213352</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>1150</v>
       </c>
       <c r="H3" s="46">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>1151</v>
@@ -23422,7 +23419,7 @@
         <v>991</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C4" s="40">
         <v>8801213353</v>
@@ -23431,10 +23428,10 @@
         <v>976</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>1150</v>
@@ -23447,27 +23444,27 @@
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14" t="s">
-        <v>974</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="40" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C5" s="40">
         <v>8801213354</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>1150</v>
@@ -23480,27 +23477,27 @@
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14" t="s">
-        <v>974</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="40" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C6" s="40">
         <v>8801213355</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>1150</v>
@@ -23512,7 +23509,9 @@
         <v>1151</v>
       </c>
       <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="40" t="s">
@@ -23528,10 +23527,10 @@
         <v>1008</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>1150</v>
@@ -23543,17 +23542,19 @@
         <v>1151</v>
       </c>
       <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="K7" s="14" t="s">
+        <v>1152</v>
+      </c>
       <c r="L7" s="50">
         <v>43210</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="40" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C8" s="40">
         <v>8801213357</v>
@@ -23562,10 +23563,10 @@
         <v>1014</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>1150</v>
@@ -23577,14 +23578,16 @@
         <v>1151</v>
       </c>
       <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="14" t="s">
         <v>1017</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C9" s="40">
         <v>8801213358</v>
@@ -23593,10 +23596,10 @@
         <v>1019</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>1150</v>
@@ -23608,14 +23611,16 @@
         <v>1151</v>
       </c>
       <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="14" t="s">
         <v>1022</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C10" s="40">
         <v>8801213359</v>
@@ -23624,10 +23629,10 @@
         <v>1023</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>1150</v>
@@ -23639,26 +23644,28 @@
         <v>1151</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="14" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C11" s="40">
         <v>8801213360</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>1171</v>
+        <v>1149</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>1150</v>
@@ -23670,9 +23677,11 @@
         <v>1151</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>1159</v>
-      </c>
-      <c r="K11" s="51"/>
+        <v>1161</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="14" t="s">
@@ -23685,13 +23694,13 @@
         <v>8801213361</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>1150</v>
@@ -23703,7 +23712,9 @@
         <v>1151</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="K12" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="14" t="s">
@@ -23716,13 +23727,13 @@
         <v>8801213362</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>1150</v>
@@ -23734,7 +23745,9 @@
         <v>1151</v>
       </c>
       <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="K13" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="14" t="s">
@@ -23747,13 +23760,13 @@
         <v>8801213363</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>1150</v>
@@ -23765,7 +23778,9 @@
         <v>1151</v>
       </c>
       <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="K14" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="14" t="s">
@@ -23778,13 +23793,13 @@
         <v>8801213364</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>1150</v>
@@ -23796,7 +23811,9 @@
         <v>1151</v>
       </c>
       <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="K15" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="14" t="s">
@@ -23809,13 +23826,13 @@
         <v>8801213365</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>1150</v>
@@ -23827,7 +23844,9 @@
         <v>1151</v>
       </c>
       <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="K16" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="14" t="s">
@@ -23840,13 +23859,13 @@
         <v>8801213366</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>1150</v>
@@ -23858,7 +23877,9 @@
         <v>1151</v>
       </c>
       <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="K17" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="14" t="s">
@@ -23871,13 +23892,13 @@
         <v>8801213367</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>1150</v>
@@ -23889,7 +23910,9 @@
         <v>1151</v>
       </c>
       <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="K18" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="14" t="s">
@@ -23902,13 +23925,13 @@
         <v>8801213368</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>1150</v>
@@ -23920,7 +23943,9 @@
         <v>1151</v>
       </c>
       <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="K19" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="14" t="s">
@@ -23933,13 +23958,13 @@
         <v>8801213369</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>1150</v>
@@ -23951,7 +23976,9 @@
         <v>1151</v>
       </c>
       <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="K20" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="14" t="s">
@@ -23964,13 +23991,13 @@
         <v>8801213370</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>1150</v>
@@ -23982,7 +24009,9 @@
         <v>1151</v>
       </c>
       <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="K21" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="14" t="s">
@@ -23995,13 +24024,13 @@
         <v>8801213371</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>1150</v>
@@ -24013,7 +24042,9 @@
         <v>1151</v>
       </c>
       <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
+      <c r="K22" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="14" t="s">
@@ -24026,13 +24057,13 @@
         <v>8801213372</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>1150</v>
@@ -24044,7 +24075,9 @@
         <v>1151</v>
       </c>
       <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
+      <c r="K23" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="14" t="s">
@@ -24057,25 +24090,27 @@
         <v>8801213373</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>1150</v>
       </c>
       <c r="H24" s="47">
-        <v>23</v>
+        <v>23.25</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>1151</v>
       </c>
       <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
+      <c r="K24" s="14" t="s">
+        <v>1152</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -27451,7 +27486,7 @@
         <v>2323256302</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>1350</v>
@@ -27605,7 +27640,7 @@
         <v>2323256305</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>1365</v>
